--- a/NetLiquidity/NLQ_Data/NLQ_Data.xlsx
+++ b/NetLiquidity/NLQ_Data/NLQ_Data.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B93"/>
+  <dimension ref="A1:B94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1192,6 +1192,14 @@
         <v>6015.81</v>
       </c>
     </row>
+    <row r="94">
+      <c r="A94" s="3" t="n">
+        <v>45119</v>
+      </c>
+      <c r="B94" t="n">
+        <v>5962.440000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1203,7 +1211,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B648"/>
+  <dimension ref="A1:B659"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6394,6 +6402,94 @@
         <v>6060.568</v>
       </c>
     </row>
+    <row r="649">
+      <c r="A649" s="3" t="n">
+        <v>45117</v>
+      </c>
+      <c r="B649" t="n">
+        <v>6070.89</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" s="3" t="n">
+        <v>45118</v>
+      </c>
+      <c r="B650" t="n">
+        <v>6107.075</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" s="3" t="n">
+        <v>45119</v>
+      </c>
+      <c r="B651" t="n">
+        <v>5962.440000000001</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" s="3" t="n">
+        <v>45120</v>
+      </c>
+      <c r="B652" t="n">
+        <v>6015.154000000001</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" s="3" t="n">
+        <v>45121</v>
+      </c>
+      <c r="B653" t="n">
+        <v>6041.809000000001</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" s="3" t="n">
+        <v>45122</v>
+      </c>
+      <c r="B654" t="n">
+        <v>6041.809000000001</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" s="3" t="n">
+        <v>45123</v>
+      </c>
+      <c r="B655" t="n">
+        <v>6041.809000000001</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" s="3" t="n">
+        <v>45124</v>
+      </c>
+      <c r="B656" t="n">
+        <v>6054.264000000001</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" s="3" t="n">
+        <v>45125</v>
+      </c>
+      <c r="B657" t="n">
+        <v>6065.724000000001</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" s="3" t="n">
+        <v>45126</v>
+      </c>
+      <c r="B658" t="n">
+        <v>6049.782000000001</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" s="3" t="n">
+        <v>45127</v>
+      </c>
+      <c r="B659" t="n">
+        <v>6049.782000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -6405,7 +6501,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B648"/>
+  <dimension ref="A1:B659"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11577,7 +11673,7 @@
         <v>45114</v>
       </c>
       <c r="B646" t="n">
-        <v>5962.599</v>
+        <v>5971.019</v>
       </c>
     </row>
     <row r="647">
@@ -11585,7 +11681,7 @@
         <v>45115</v>
       </c>
       <c r="B647" t="n">
-        <v>5962.599</v>
+        <v>5971.019</v>
       </c>
     </row>
     <row r="648">
@@ -11593,7 +11689,95 @@
         <v>45116</v>
       </c>
       <c r="B648" t="n">
-        <v>5962.599</v>
+        <v>5971.019</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" s="3" t="n">
+        <v>45117</v>
+      </c>
+      <c r="B649" t="n">
+        <v>5974.554</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" s="3" t="n">
+        <v>45118</v>
+      </c>
+      <c r="B650" t="n">
+        <v>5979.732</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" s="3" t="n">
+        <v>45119</v>
+      </c>
+      <c r="B651" t="n">
+        <v>5959.359000000001</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" s="3" t="n">
+        <v>45120</v>
+      </c>
+      <c r="B652" t="n">
+        <v>6006.791000000001</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" s="3" t="n">
+        <v>45121</v>
+      </c>
+      <c r="B653" t="n">
+        <v>6034.524</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" s="3" t="n">
+        <v>45122</v>
+      </c>
+      <c r="B654" t="n">
+        <v>6034.524</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" s="3" t="n">
+        <v>45123</v>
+      </c>
+      <c r="B655" t="n">
+        <v>6034.524</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" s="3" t="n">
+        <v>45124</v>
+      </c>
+      <c r="B656" t="n">
+        <v>6037.184</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" s="3" t="n">
+        <v>45125</v>
+      </c>
+      <c r="B657" t="n">
+        <v>6018.542</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" s="3" t="n">
+        <v>45126</v>
+      </c>
+      <c r="B658" t="n">
+        <v>6002.6</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" s="3" t="n">
+        <v>45127</v>
+      </c>
+      <c r="B659" t="n">
+        <v>6002.6</v>
       </c>
     </row>
   </sheetData>

--- a/NetLiquidity/NLQ_Data/NLQ_Data.xlsx
+++ b/NetLiquidity/NLQ_Data/NLQ_Data.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B94"/>
+  <dimension ref="A1:B95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1212,6 +1212,14 @@
         <v>5962.440000000001</v>
       </c>
     </row>
+    <row r="95">
+      <c r="A95" s="3" t="n">
+        <v>45126</v>
+      </c>
+      <c r="B95" t="n">
+        <v>6010.612999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1223,7 +1231,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B659"/>
+  <dimension ref="A1:B663"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4801,10 +4809,33 @@
       <c r="A658" s="3" t="n">
         <v>45126</v>
       </c>
+      <c r="B658" t="n">
+        <v>25107.81647324</v>
+      </c>
     </row>
     <row r="659">
       <c r="A659" s="3" t="n">
         <v>45127</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" s="3" t="n">
+        <v>45128</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" s="3" t="n">
+        <v>45129</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" s="3" t="n">
+        <v>45130</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" s="3" t="n">
+        <v>45131</v>
       </c>
     </row>
   </sheetData>
@@ -4818,7 +4849,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B659"/>
+  <dimension ref="A1:B663"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10086,7 +10117,7 @@
         <v>45126</v>
       </c>
       <c r="B658" t="n">
-        <v>25146.98547324</v>
+        <v>25107.81647324</v>
       </c>
     </row>
     <row r="659">
@@ -10094,7 +10125,39 @@
         <v>45127</v>
       </c>
       <c r="B659" t="n">
-        <v>25202.001025</v>
+        <v>25174.635025</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" s="3" t="n">
+        <v>45128</v>
+      </c>
+      <c r="B660" t="n">
+        <v>24970.52989254</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" s="3" t="n">
+        <v>45129</v>
+      </c>
+      <c r="B661" t="n">
+        <v>24970.52989254</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" s="3" t="n">
+        <v>45130</v>
+      </c>
+      <c r="B662" t="n">
+        <v>24970.52989254</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" s="3" t="n">
+        <v>45131</v>
+      </c>
+      <c r="B663" t="n">
+        <v>24984.57767666</v>
       </c>
     </row>
   </sheetData>
@@ -10108,7 +10171,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B659"/>
+  <dimension ref="A1:B663"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15376,7 +15439,7 @@
         <v>45126</v>
       </c>
       <c r="B658" t="n">
-        <v>25100.01075895429</v>
+        <v>25101.82675895428</v>
       </c>
     </row>
     <row r="659">
@@ -15384,7 +15447,39 @@
         <v>45127</v>
       </c>
       <c r="B659" t="n">
-        <v>25155.02631071429</v>
+        <v>25168.21731071428</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" s="3" t="n">
+        <v>45128</v>
+      </c>
+      <c r="B660" t="n">
+        <v>24964.11217825428</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" s="3" t="n">
+        <v>45129</v>
+      </c>
+      <c r="B661" t="n">
+        <v>24964.11217825428</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" s="3" t="n">
+        <v>45130</v>
+      </c>
+      <c r="B662" t="n">
+        <v>24964.11217825428</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" s="3" t="n">
+        <v>45131</v>
+      </c>
+      <c r="B663" t="n">
+        <v>24978.15996237429</v>
       </c>
     </row>
   </sheetData>
@@ -15398,7 +15493,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B659"/>
+  <dimension ref="A1:B663"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19539,13 +19634,39 @@
       <c r="A658" s="3" t="n">
         <v>45126</v>
       </c>
-      <c r="B658" t="inlineStr"/>
+      <c r="B658" t="n">
+        <v>26402.61021377</v>
+      </c>
     </row>
     <row r="659">
       <c r="A659" s="3" t="n">
         <v>45127</v>
       </c>
       <c r="B659" t="inlineStr"/>
+    </row>
+    <row r="660">
+      <c r="A660" s="3" t="n">
+        <v>45128</v>
+      </c>
+      <c r="B660" t="inlineStr"/>
+    </row>
+    <row r="661">
+      <c r="A661" s="3" t="n">
+        <v>45129</v>
+      </c>
+      <c r="B661" t="inlineStr"/>
+    </row>
+    <row r="662">
+      <c r="A662" s="3" t="n">
+        <v>45130</v>
+      </c>
+      <c r="B662" t="inlineStr"/>
+    </row>
+    <row r="663">
+      <c r="A663" s="3" t="n">
+        <v>45131</v>
+      </c>
+      <c r="B663" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -19558,7 +19679,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B659"/>
+  <dimension ref="A1:B663"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24826,7 +24947,7 @@
         <v>45126</v>
       </c>
       <c r="B658" t="n">
-        <v>26466.93023635</v>
+        <v>26402.61021377</v>
       </c>
     </row>
     <row r="659">
@@ -24834,7 +24955,39 @@
         <v>45127</v>
       </c>
       <c r="B659" t="n">
-        <v>26517.48785934</v>
+        <v>26465.05578082</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" s="3" t="n">
+        <v>45128</v>
+      </c>
+      <c r="B660" t="n">
+        <v>26256.59767731</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" s="3" t="n">
+        <v>45129</v>
+      </c>
+      <c r="B661" t="n">
+        <v>26256.59767731</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" s="3" t="n">
+        <v>45130</v>
+      </c>
+      <c r="B662" t="n">
+        <v>26256.59767731</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" s="3" t="n">
+        <v>45131</v>
+      </c>
+      <c r="B663" t="n">
+        <v>26270.42531116999</v>
       </c>
     </row>
   </sheetData>
@@ -24848,7 +25001,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B659"/>
+  <dimension ref="A1:B663"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30116,7 +30269,7 @@
         <v>45126</v>
       </c>
       <c r="B658" t="n">
-        <v>26419.95552206429</v>
+        <v>26396.62049948428</v>
       </c>
     </row>
     <row r="659">
@@ -30124,7 +30277,39 @@
         <v>45127</v>
       </c>
       <c r="B659" t="n">
-        <v>26470.51314505429</v>
+        <v>26458.63806653428</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" s="3" t="n">
+        <v>45128</v>
+      </c>
+      <c r="B660" t="n">
+        <v>26250.17996302428</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" s="3" t="n">
+        <v>45129</v>
+      </c>
+      <c r="B661" t="n">
+        <v>26250.17996302428</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" s="3" t="n">
+        <v>45130</v>
+      </c>
+      <c r="B662" t="n">
+        <v>26250.17996302428</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" s="3" t="n">
+        <v>45131</v>
+      </c>
+      <c r="B663" t="n">
+        <v>26264.00759688429</v>
       </c>
     </row>
   </sheetData>
@@ -30138,7 +30323,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B659"/>
+  <dimension ref="A1:B663"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35406,7 +35591,7 @@
         <v>45126</v>
       </c>
       <c r="B658" t="n">
-        <v>6049.782000000001</v>
+        <v>6010.612999999999</v>
       </c>
     </row>
     <row r="659">
@@ -35414,7 +35599,39 @@
         <v>45127</v>
       </c>
       <c r="B659" t="n">
-        <v>6049.782000000001</v>
+        <v>6022.415999999999</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" s="3" t="n">
+        <v>45128</v>
+      </c>
+      <c r="B660" t="n">
+        <v>5972.664999999999</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" s="3" t="n">
+        <v>45129</v>
+      </c>
+      <c r="B661" t="n">
+        <v>5972.664999999999</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" s="3" t="n">
+        <v>45130</v>
+      </c>
+      <c r="B662" t="n">
+        <v>5972.664999999999</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" s="3" t="n">
+        <v>45131</v>
+      </c>
+      <c r="B663" t="n">
+        <v>5972.664999999999</v>
       </c>
     </row>
   </sheetData>
@@ -35428,7 +35645,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B659"/>
+  <dimension ref="A1:B663"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40696,7 +40913,7 @@
         <v>45126</v>
       </c>
       <c r="B658" t="n">
-        <v>6002.6</v>
+        <v>6004.307</v>
       </c>
     </row>
     <row r="659">
@@ -40704,7 +40921,39 @@
         <v>45127</v>
       </c>
       <c r="B659" t="n">
-        <v>6002.6</v>
+        <v>6015.682</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" s="3" t="n">
+        <v>45128</v>
+      </c>
+      <c r="B660" t="n">
+        <v>5965.931</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" s="3" t="n">
+        <v>45129</v>
+      </c>
+      <c r="B661" t="n">
+        <v>5965.931</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" s="3" t="n">
+        <v>45130</v>
+      </c>
+      <c r="B662" t="n">
+        <v>5965.931</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" s="3" t="n">
+        <v>45131</v>
+      </c>
+      <c r="B663" t="n">
+        <v>5965.931</v>
       </c>
     </row>
   </sheetData>
@@ -40718,7 +40967,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B659"/>
+  <dimension ref="A1:B663"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44296,10 +44545,33 @@
       <c r="A658" s="3" t="n">
         <v>45126</v>
       </c>
+      <c r="B658" t="n">
+        <v>14078.74874168</v>
+      </c>
     </row>
     <row r="659">
       <c r="A659" s="3" t="n">
         <v>45127</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" s="3" t="n">
+        <v>45128</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" s="3" t="n">
+        <v>45129</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" s="3" t="n">
+        <v>45130</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" s="3" t="n">
+        <v>45131</v>
       </c>
     </row>
   </sheetData>
@@ -44313,7 +44585,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B659"/>
+  <dimension ref="A1:B663"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49581,7 +49853,7 @@
         <v>45126</v>
       </c>
       <c r="B658" t="n">
-        <v>14117.91774168</v>
+        <v>14078.74874168</v>
       </c>
     </row>
     <row r="659">
@@ -49589,7 +49861,39 @@
         <v>45127</v>
       </c>
       <c r="B659" t="n">
-        <v>14119.79117012</v>
+        <v>14092.42517012</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" s="3" t="n">
+        <v>45128</v>
+      </c>
+      <c r="B660" t="n">
+        <v>13988.4168003</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" s="3" t="n">
+        <v>45129</v>
+      </c>
+      <c r="B661" t="n">
+        <v>13988.4168003</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" s="3" t="n">
+        <v>45130</v>
+      </c>
+      <c r="B662" t="n">
+        <v>13988.4168003</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" s="3" t="n">
+        <v>45131</v>
+      </c>
+      <c r="B663" t="n">
+        <v>13971.26772458</v>
       </c>
     </row>
   </sheetData>
@@ -49603,7 +49907,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B659"/>
+  <dimension ref="A1:B663"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54871,7 +55175,7 @@
         <v>45126</v>
       </c>
       <c r="B658" t="n">
-        <v>14070.94302739429</v>
+        <v>14072.75902739429</v>
       </c>
     </row>
     <row r="659">
@@ -54879,7 +55183,39 @@
         <v>45127</v>
       </c>
       <c r="B659" t="n">
-        <v>14072.81645583429</v>
+        <v>14086.00745583429</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" s="3" t="n">
+        <v>45128</v>
+      </c>
+      <c r="B660" t="n">
+        <v>13981.99908601429</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" s="3" t="n">
+        <v>45129</v>
+      </c>
+      <c r="B661" t="n">
+        <v>13981.99908601429</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" s="3" t="n">
+        <v>45130</v>
+      </c>
+      <c r="B662" t="n">
+        <v>13981.99908601429</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" s="3" t="n">
+        <v>45131</v>
+      </c>
+      <c r="B663" t="n">
+        <v>13964.85001029429</v>
       </c>
     </row>
   </sheetData>
@@ -54893,7 +55229,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B659"/>
+  <dimension ref="A1:B663"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58471,10 +58807,33 @@
       <c r="A658" s="3" t="n">
         <v>45126</v>
       </c>
+      <c r="B658" t="n">
+        <v>19324.33514468</v>
+      </c>
     </row>
     <row r="659">
       <c r="A659" s="3" t="n">
         <v>45127</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" s="3" t="n">
+        <v>45128</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" s="3" t="n">
+        <v>45129</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" s="3" t="n">
+        <v>45130</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" s="3" t="n">
+        <v>45131</v>
       </c>
     </row>
   </sheetData>
@@ -58488,7 +58847,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B659"/>
+  <dimension ref="A1:B663"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63756,7 +64115,7 @@
         <v>45126</v>
       </c>
       <c r="B658" t="n">
-        <v>19363.50414468</v>
+        <v>19324.33514468</v>
       </c>
     </row>
     <row r="659">
@@ -63764,7 +64123,39 @@
         <v>45127</v>
       </c>
       <c r="B659" t="n">
-        <v>19369.18828132</v>
+        <v>19341.82228132</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" s="3" t="n">
+        <v>45128</v>
+      </c>
+      <c r="B660" t="n">
+        <v>19154.8577253</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" s="3" t="n">
+        <v>45129</v>
+      </c>
+      <c r="B661" t="n">
+        <v>19154.8577253</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" s="3" t="n">
+        <v>45130</v>
+      </c>
+      <c r="B662" t="n">
+        <v>19154.8577253</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" s="3" t="n">
+        <v>45131</v>
+      </c>
+      <c r="B663" t="n">
+        <v>19168.48744657999</v>
       </c>
     </row>
   </sheetData>
@@ -63778,7 +64169,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B659"/>
+  <dimension ref="A1:B663"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69046,7 +69437,7 @@
         <v>45126</v>
       </c>
       <c r="B658" t="n">
-        <v>19316.52943039429</v>
+        <v>19318.34543039429</v>
       </c>
     </row>
     <row r="659">
@@ -69054,7 +69445,39 @@
         <v>45127</v>
       </c>
       <c r="B659" t="n">
-        <v>19322.21356703429</v>
+        <v>19335.40456703429</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" s="3" t="n">
+        <v>45128</v>
+      </c>
+      <c r="B660" t="n">
+        <v>19148.44001101429</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" s="3" t="n">
+        <v>45129</v>
+      </c>
+      <c r="B661" t="n">
+        <v>19148.44001101429</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" s="3" t="n">
+        <v>45130</v>
+      </c>
+      <c r="B662" t="n">
+        <v>19148.44001101429</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" s="3" t="n">
+        <v>45131</v>
+      </c>
+      <c r="B663" t="n">
+        <v>19162.06973229429</v>
       </c>
     </row>
   </sheetData>

--- a/NetLiquidity/NLQ_Data/NLQ_Data.xlsx
+++ b/NetLiquidity/NLQ_Data/NLQ_Data.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B95"/>
+  <dimension ref="A1:B96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1220,6 +1220,14 @@
         <v>6010.612999999999</v>
       </c>
     </row>
+    <row r="96">
+      <c r="A96" s="3" t="n">
+        <v>45133</v>
+      </c>
+      <c r="B96" t="n">
+        <v>5950.013999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1231,7 +1239,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B663"/>
+  <dimension ref="A1:B673"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4838,6 +4846,59 @@
         <v>45131</v>
       </c>
     </row>
+    <row r="664">
+      <c r="A664" s="3" t="n">
+        <v>45132</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" s="3" t="n">
+        <v>45133</v>
+      </c>
+      <c r="B665" t="n">
+        <v>24986.0136756</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" s="3" t="n">
+        <v>45134</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" s="3" t="n">
+        <v>45135</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" s="3" t="n">
+        <v>45136</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" s="3" t="n">
+        <v>45137</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" s="3" t="n">
+        <v>45138</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" s="3" t="n">
+        <v>45139</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" s="3" t="n">
+        <v>45140</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" s="3" t="n">
+        <v>45141</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4849,7 +4910,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B663"/>
+  <dimension ref="A1:B673"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10133,7 +10194,7 @@
         <v>45128</v>
       </c>
       <c r="B660" t="n">
-        <v>24970.52989254</v>
+        <v>24949.83164784</v>
       </c>
     </row>
     <row r="661">
@@ -10141,7 +10202,7 @@
         <v>45129</v>
       </c>
       <c r="B661" t="n">
-        <v>24970.52989254</v>
+        <v>24949.83164784</v>
       </c>
     </row>
     <row r="662">
@@ -10149,7 +10210,7 @@
         <v>45130</v>
       </c>
       <c r="B662" t="n">
-        <v>24970.52989254</v>
+        <v>24949.83164784</v>
       </c>
     </row>
     <row r="663">
@@ -10157,7 +10218,87 @@
         <v>45131</v>
       </c>
       <c r="B663" t="n">
-        <v>24984.57767666</v>
+        <v>24963.80871424</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" s="3" t="n">
+        <v>45132</v>
+      </c>
+      <c r="B664" t="n">
+        <v>25017.72007058</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" s="3" t="n">
+        <v>45133</v>
+      </c>
+      <c r="B665" t="n">
+        <v>24986.0136756</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" s="3" t="n">
+        <v>45134</v>
+      </c>
+      <c r="B666" t="n">
+        <v>24928.38905854</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" s="3" t="n">
+        <v>45135</v>
+      </c>
+      <c r="B667" t="n">
+        <v>24922.44104786</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" s="3" t="n">
+        <v>45136</v>
+      </c>
+      <c r="B668" t="n">
+        <v>24922.44104786</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" s="3" t="n">
+        <v>45137</v>
+      </c>
+      <c r="B669" t="n">
+        <v>24922.44104786</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" s="3" t="n">
+        <v>45138</v>
+      </c>
+      <c r="B670" t="n">
+        <v>24785.26951046</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" s="3" t="n">
+        <v>45139</v>
+      </c>
+      <c r="B671" t="n">
+        <v>24810.4429693</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" s="3" t="n">
+        <v>45140</v>
+      </c>
+      <c r="B672" t="n">
+        <v>24728.0600304</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" s="3" t="n">
+        <v>45141</v>
+      </c>
+      <c r="B673" t="n">
+        <v>24747.83185474</v>
       </c>
     </row>
   </sheetData>
@@ -10171,7 +10312,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B663"/>
+  <dimension ref="A1:B673"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15455,7 +15596,7 @@
         <v>45128</v>
       </c>
       <c r="B660" t="n">
-        <v>24964.11217825428</v>
+        <v>24948.44893355429</v>
       </c>
     </row>
     <row r="661">
@@ -15463,7 +15604,7 @@
         <v>45129</v>
       </c>
       <c r="B661" t="n">
-        <v>24964.11217825428</v>
+        <v>24948.44893355429</v>
       </c>
     </row>
     <row r="662">
@@ -15471,7 +15612,7 @@
         <v>45130</v>
       </c>
       <c r="B662" t="n">
-        <v>24964.11217825428</v>
+        <v>24948.44893355429</v>
       </c>
     </row>
     <row r="663">
@@ -15479,7 +15620,87 @@
         <v>45131</v>
       </c>
       <c r="B663" t="n">
-        <v>24978.15996237429</v>
+        <v>24950.24599995428</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" s="3" t="n">
+        <v>45132</v>
+      </c>
+      <c r="B664" t="n">
+        <v>24975.27335629429</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" s="3" t="n">
+        <v>45133</v>
+      </c>
+      <c r="B665" t="n">
+        <v>24980.10310417143</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" s="3" t="n">
+        <v>45134</v>
+      </c>
+      <c r="B666" t="n">
+        <v>24920.74448711143</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" s="3" t="n">
+        <v>45135</v>
+      </c>
+      <c r="B667" t="n">
+        <v>24916.52347643143</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" s="3" t="n">
+        <v>45136</v>
+      </c>
+      <c r="B668" t="n">
+        <v>24916.52347643143</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" s="3" t="n">
+        <v>45137</v>
+      </c>
+      <c r="B669" t="n">
+        <v>24916.52347643143</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" s="3" t="n">
+        <v>45138</v>
+      </c>
+      <c r="B670" t="n">
+        <v>24827.42793903143</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" s="3" t="n">
+        <v>45139</v>
+      </c>
+      <c r="B671" t="n">
+        <v>24896.31639787143</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" s="3" t="n">
+        <v>45140</v>
+      </c>
+      <c r="B672" t="n">
+        <v>24813.93345897143</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" s="3" t="n">
+        <v>45141</v>
+      </c>
+      <c r="B673" t="n">
+        <v>24833.70528331143</v>
       </c>
     </row>
   </sheetData>
@@ -15493,7 +15714,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B663"/>
+  <dimension ref="A1:B673"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19668,6 +19889,68 @@
       </c>
       <c r="B663" t="inlineStr"/>
     </row>
+    <row r="664">
+      <c r="A664" s="3" t="n">
+        <v>45132</v>
+      </c>
+      <c r="B664" t="inlineStr"/>
+    </row>
+    <row r="665">
+      <c r="A665" s="3" t="n">
+        <v>45133</v>
+      </c>
+      <c r="B665" t="n">
+        <v>26281.48092936</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" s="3" t="n">
+        <v>45134</v>
+      </c>
+      <c r="B666" t="inlineStr"/>
+    </row>
+    <row r="667">
+      <c r="A667" s="3" t="n">
+        <v>45135</v>
+      </c>
+      <c r="B667" t="inlineStr"/>
+    </row>
+    <row r="668">
+      <c r="A668" s="3" t="n">
+        <v>45136</v>
+      </c>
+      <c r="B668" t="inlineStr"/>
+    </row>
+    <row r="669">
+      <c r="A669" s="3" t="n">
+        <v>45137</v>
+      </c>
+      <c r="B669" t="inlineStr"/>
+    </row>
+    <row r="670">
+      <c r="A670" s="3" t="n">
+        <v>45138</v>
+      </c>
+      <c r="B670" t="inlineStr"/>
+    </row>
+    <row r="671">
+      <c r="A671" s="3" t="n">
+        <v>45139</v>
+      </c>
+      <c r="B671" t="inlineStr"/>
+    </row>
+    <row r="672">
+      <c r="A672" s="3" t="n">
+        <v>45140</v>
+      </c>
+      <c r="B672" t="inlineStr"/>
+    </row>
+    <row r="673">
+      <c r="A673" s="3" t="n">
+        <v>45141</v>
+      </c>
+      <c r="B673" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -19679,7 +19962,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B663"/>
+  <dimension ref="A1:B673"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24963,7 +25246,7 @@
         <v>45128</v>
       </c>
       <c r="B660" t="n">
-        <v>26256.59767731</v>
+        <v>26235.89943261</v>
       </c>
     </row>
     <row r="661">
@@ -24971,7 +25254,7 @@
         <v>45129</v>
       </c>
       <c r="B661" t="n">
-        <v>26256.59767731</v>
+        <v>26235.89943261</v>
       </c>
     </row>
     <row r="662">
@@ -24979,7 +25262,7 @@
         <v>45130</v>
       </c>
       <c r="B662" t="n">
-        <v>26256.59767731</v>
+        <v>26235.89943261</v>
       </c>
     </row>
     <row r="663">
@@ -24987,7 +25270,87 @@
         <v>45131</v>
       </c>
       <c r="B663" t="n">
-        <v>26270.42531116999</v>
+        <v>26249.65634875</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" s="3" t="n">
+        <v>45132</v>
+      </c>
+      <c r="B664" t="n">
+        <v>26308.75124303</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" s="3" t="n">
+        <v>45133</v>
+      </c>
+      <c r="B665" t="n">
+        <v>26281.48092936</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" s="3" t="n">
+        <v>45134</v>
+      </c>
+      <c r="B666" t="n">
+        <v>26209.36078974</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" s="3" t="n">
+        <v>45135</v>
+      </c>
+      <c r="B667" t="n">
+        <v>26208.50823554</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" s="3" t="n">
+        <v>45136</v>
+      </c>
+      <c r="B668" t="n">
+        <v>26208.50823554</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" s="3" t="n">
+        <v>45137</v>
+      </c>
+      <c r="B669" t="n">
+        <v>26208.50823554</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" s="3" t="n">
+        <v>45138</v>
+      </c>
+      <c r="B670" t="n">
+        <v>26070.08535814</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" s="3" t="n">
+        <v>45139</v>
+      </c>
+      <c r="B671" t="n">
+        <v>26089.39253506</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" s="3" t="n">
+        <v>45140</v>
+      </c>
+      <c r="B672" t="n">
+        <v>26000.472596</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" s="3" t="n">
+        <v>45141</v>
+      </c>
+      <c r="B673" t="n">
+        <v>26014.90870658</v>
       </c>
     </row>
   </sheetData>
@@ -25001,7 +25364,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B663"/>
+  <dimension ref="A1:B673"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30285,7 +30648,7 @@
         <v>45128</v>
       </c>
       <c r="B660" t="n">
-        <v>26250.17996302428</v>
+        <v>26234.51671832429</v>
       </c>
     </row>
     <row r="661">
@@ -30293,7 +30656,7 @@
         <v>45129</v>
       </c>
       <c r="B661" t="n">
-        <v>26250.17996302428</v>
+        <v>26234.51671832429</v>
       </c>
     </row>
     <row r="662">
@@ -30301,7 +30664,7 @@
         <v>45130</v>
       </c>
       <c r="B662" t="n">
-        <v>26250.17996302428</v>
+        <v>26234.51671832429</v>
       </c>
     </row>
     <row r="663">
@@ -30309,7 +30672,87 @@
         <v>45131</v>
       </c>
       <c r="B663" t="n">
-        <v>26264.00759688429</v>
+        <v>26236.09363446428</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" s="3" t="n">
+        <v>45132</v>
+      </c>
+      <c r="B664" t="n">
+        <v>26266.30452874429</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" s="3" t="n">
+        <v>45133</v>
+      </c>
+      <c r="B665" t="n">
+        <v>26275.57035793143</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" s="3" t="n">
+        <v>45134</v>
+      </c>
+      <c r="B666" t="n">
+        <v>26201.71621831143</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" s="3" t="n">
+        <v>45135</v>
+      </c>
+      <c r="B667" t="n">
+        <v>26202.59066411143</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" s="3" t="n">
+        <v>45136</v>
+      </c>
+      <c r="B668" t="n">
+        <v>26202.59066411143</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" s="3" t="n">
+        <v>45137</v>
+      </c>
+      <c r="B669" t="n">
+        <v>26202.59066411143</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" s="3" t="n">
+        <v>45138</v>
+      </c>
+      <c r="B670" t="n">
+        <v>26112.24378671143</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" s="3" t="n">
+        <v>45139</v>
+      </c>
+      <c r="B671" t="n">
+        <v>26175.26596363143</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" s="3" t="n">
+        <v>45140</v>
+      </c>
+      <c r="B672" t="n">
+        <v>26086.34602457143</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" s="3" t="n">
+        <v>45141</v>
+      </c>
+      <c r="B673" t="n">
+        <v>26100.78213515143</v>
       </c>
     </row>
   </sheetData>
@@ -30323,7 +30766,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B663"/>
+  <dimension ref="A1:B673"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35631,7 +36074,87 @@
         <v>45131</v>
       </c>
       <c r="B663" t="n">
-        <v>5972.664999999999</v>
+        <v>5972.549999999999</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" s="3" t="n">
+        <v>45132</v>
+      </c>
+      <c r="B664" t="n">
+        <v>6022.700999999999</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" s="3" t="n">
+        <v>45133</v>
+      </c>
+      <c r="B665" t="n">
+        <v>5950.013999999999</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" s="3" t="n">
+        <v>45134</v>
+      </c>
+      <c r="B666" t="n">
+        <v>5963.964</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" s="3" t="n">
+        <v>45135</v>
+      </c>
+      <c r="B667" t="n">
+        <v>5969.52</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" s="3" t="n">
+        <v>45136</v>
+      </c>
+      <c r="B668" t="n">
+        <v>5969.52</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" s="3" t="n">
+        <v>45137</v>
+      </c>
+      <c r="B669" t="n">
+        <v>5969.52</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" s="3" t="n">
+        <v>45138</v>
+      </c>
+      <c r="B670" t="n">
+        <v>5878.623</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" s="3" t="n">
+        <v>45139</v>
+      </c>
+      <c r="B671" t="n">
+        <v>5960.192999999999</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" s="3" t="n">
+        <v>45140</v>
+      </c>
+      <c r="B672" t="n">
+        <v>5929.561</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" s="3" t="n">
+        <v>45141</v>
+      </c>
+      <c r="B673" t="n">
+        <v>5929.561</v>
       </c>
     </row>
   </sheetData>
@@ -35645,7 +36168,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B663"/>
+  <dimension ref="A1:B673"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40929,7 +41452,7 @@
         <v>45128</v>
       </c>
       <c r="B660" t="n">
-        <v>5965.931</v>
+        <v>5970.966</v>
       </c>
     </row>
     <row r="661">
@@ -40937,7 +41460,7 @@
         <v>45129</v>
       </c>
       <c r="B661" t="n">
-        <v>5965.931</v>
+        <v>5970.966</v>
       </c>
     </row>
     <row r="662">
@@ -40945,7 +41468,7 @@
         <v>45130</v>
       </c>
       <c r="B662" t="n">
-        <v>5965.931</v>
+        <v>5970.966</v>
       </c>
     </row>
     <row r="663">
@@ -40953,7 +41476,87 @@
         <v>45131</v>
       </c>
       <c r="B663" t="n">
-        <v>5965.931</v>
+        <v>5958.670999999999</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" s="3" t="n">
+        <v>45132</v>
+      </c>
+      <c r="B664" t="n">
+        <v>5979.938</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" s="3" t="n">
+        <v>45133</v>
+      </c>
+      <c r="B665" t="n">
+        <v>5943.713999999999</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" s="3" t="n">
+        <v>45134</v>
+      </c>
+      <c r="B666" t="n">
+        <v>5955.929999999998</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" s="3" t="n">
+        <v>45135</v>
+      </c>
+      <c r="B667" t="n">
+        <v>5963.212999999999</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" s="3" t="n">
+        <v>45136</v>
+      </c>
+      <c r="B668" t="n">
+        <v>5963.212999999999</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" s="3" t="n">
+        <v>45137</v>
+      </c>
+      <c r="B669" t="n">
+        <v>5963.212999999999</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" s="3" t="n">
+        <v>45138</v>
+      </c>
+      <c r="B670" t="n">
+        <v>5920.392</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" s="3" t="n">
+        <v>45139</v>
+      </c>
+      <c r="B671" t="n">
+        <v>6045.676999999999</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" s="3" t="n">
+        <v>45140</v>
+      </c>
+      <c r="B672" t="n">
+        <v>6015.044999999999</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" s="3" t="n">
+        <v>45141</v>
+      </c>
+      <c r="B673" t="n">
+        <v>6015.044999999999</v>
       </c>
     </row>
   </sheetData>
@@ -40967,7 +41570,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B663"/>
+  <dimension ref="A1:B673"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44574,6 +45177,59 @@
         <v>45131</v>
       </c>
     </row>
+    <row r="664">
+      <c r="A664" s="3" t="n">
+        <v>45132</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" s="3" t="n">
+        <v>45133</v>
+      </c>
+      <c r="B665" t="n">
+        <v>13917.18243016</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" s="3" t="n">
+        <v>45134</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" s="3" t="n">
+        <v>45135</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" s="3" t="n">
+        <v>45136</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" s="3" t="n">
+        <v>45137</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" s="3" t="n">
+        <v>45138</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" s="3" t="n">
+        <v>45139</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" s="3" t="n">
+        <v>45140</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" s="3" t="n">
+        <v>45141</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -44585,7 +45241,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B663"/>
+  <dimension ref="A1:B673"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49869,7 +50525,7 @@
         <v>45128</v>
       </c>
       <c r="B660" t="n">
-        <v>13988.4168003</v>
+        <v>13967.7185556</v>
       </c>
     </row>
     <row r="661">
@@ -49877,7 +50533,7 @@
         <v>45129</v>
       </c>
       <c r="B661" t="n">
-        <v>13988.4168003</v>
+        <v>13967.7185556</v>
       </c>
     </row>
     <row r="662">
@@ -49885,7 +50541,7 @@
         <v>45130</v>
       </c>
       <c r="B662" t="n">
-        <v>13988.4168003</v>
+        <v>13967.7185556</v>
       </c>
     </row>
     <row r="663">
@@ -49893,7 +50549,87 @@
         <v>45131</v>
       </c>
       <c r="B663" t="n">
-        <v>13971.26772458</v>
+        <v>13950.49876216</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" s="3" t="n">
+        <v>45132</v>
+      </c>
+      <c r="B664" t="n">
+        <v>13962.91860016</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" s="3" t="n">
+        <v>45133</v>
+      </c>
+      <c r="B665" t="n">
+        <v>13917.18243016</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" s="3" t="n">
+        <v>45134</v>
+      </c>
+      <c r="B666" t="n">
+        <v>13851.71731776</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" s="3" t="n">
+        <v>45135</v>
+      </c>
+      <c r="B667" t="n">
+        <v>13887.0916848</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" s="3" t="n">
+        <v>45136</v>
+      </c>
+      <c r="B668" t="n">
+        <v>13887.0916848</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" s="3" t="n">
+        <v>45137</v>
+      </c>
+      <c r="B669" t="n">
+        <v>13887.0916848</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" s="3" t="n">
+        <v>45138</v>
+      </c>
+      <c r="B670" t="n">
+        <v>13784.47613232</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" s="3" t="n">
+        <v>45139</v>
+      </c>
+      <c r="B671" t="n">
+        <v>13857.13140528</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" s="3" t="n">
+        <v>45140</v>
+      </c>
+      <c r="B672" t="n">
+        <v>13793.06917888</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" s="3" t="n">
+        <v>45141</v>
+      </c>
+      <c r="B673" t="n">
+        <v>13785.73609696</v>
       </c>
     </row>
   </sheetData>
@@ -49907,7 +50643,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B663"/>
+  <dimension ref="A1:B673"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55191,7 +55927,7 @@
         <v>45128</v>
       </c>
       <c r="B660" t="n">
-        <v>13981.99908601429</v>
+        <v>13966.33584131429</v>
       </c>
     </row>
     <row r="661">
@@ -55199,7 +55935,7 @@
         <v>45129</v>
       </c>
       <c r="B661" t="n">
-        <v>13981.99908601429</v>
+        <v>13966.33584131429</v>
       </c>
     </row>
     <row r="662">
@@ -55207,7 +55943,7 @@
         <v>45130</v>
       </c>
       <c r="B662" t="n">
-        <v>13981.99908601429</v>
+        <v>13966.33584131429</v>
       </c>
     </row>
     <row r="663">
@@ -55215,7 +55951,87 @@
         <v>45131</v>
       </c>
       <c r="B663" t="n">
-        <v>13964.85001029429</v>
+        <v>13936.93604787429</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" s="3" t="n">
+        <v>45132</v>
+      </c>
+      <c r="B664" t="n">
+        <v>13920.47188587429</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" s="3" t="n">
+        <v>45133</v>
+      </c>
+      <c r="B665" t="n">
+        <v>13911.27185873143</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" s="3" t="n">
+        <v>45134</v>
+      </c>
+      <c r="B666" t="n">
+        <v>13844.07274633143</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" s="3" t="n">
+        <v>45135</v>
+      </c>
+      <c r="B667" t="n">
+        <v>13881.17411337143</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" s="3" t="n">
+        <v>45136</v>
+      </c>
+      <c r="B668" t="n">
+        <v>13881.17411337143</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" s="3" t="n">
+        <v>45137</v>
+      </c>
+      <c r="B669" t="n">
+        <v>13881.17411337143</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" s="3" t="n">
+        <v>45138</v>
+      </c>
+      <c r="B670" t="n">
+        <v>13826.63456089143</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" s="3" t="n">
+        <v>45139</v>
+      </c>
+      <c r="B671" t="n">
+        <v>13943.00483385143</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" s="3" t="n">
+        <v>45140</v>
+      </c>
+      <c r="B672" t="n">
+        <v>13878.94260745143</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" s="3" t="n">
+        <v>45141</v>
+      </c>
+      <c r="B673" t="n">
+        <v>13871.60952553143</v>
       </c>
     </row>
   </sheetData>
@@ -55229,7 +56045,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B663"/>
+  <dimension ref="A1:B673"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58836,6 +59652,59 @@
         <v>45131</v>
       </c>
     </row>
+    <row r="664">
+      <c r="A664" s="3" t="n">
+        <v>45132</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" s="3" t="n">
+        <v>45133</v>
+      </c>
+      <c r="B665" t="n">
+        <v>19141.07710956</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" s="3" t="n">
+        <v>45134</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" s="3" t="n">
+        <v>45135</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" s="3" t="n">
+        <v>45136</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" s="3" t="n">
+        <v>45137</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" s="3" t="n">
+        <v>45138</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" s="3" t="n">
+        <v>45139</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" s="3" t="n">
+        <v>45140</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" s="3" t="n">
+        <v>45141</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -58847,7 +59716,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B663"/>
+  <dimension ref="A1:B673"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64131,7 +65000,7 @@
         <v>45128</v>
       </c>
       <c r="B660" t="n">
-        <v>19154.8577253</v>
+        <v>19134.1594806</v>
       </c>
     </row>
     <row r="661">
@@ -64139,7 +65008,7 @@
         <v>45129</v>
       </c>
       <c r="B661" t="n">
-        <v>19154.8577253</v>
+        <v>19134.1594806</v>
       </c>
     </row>
     <row r="662">
@@ -64147,7 +65016,7 @@
         <v>45130</v>
       </c>
       <c r="B662" t="n">
-        <v>19154.8577253</v>
+        <v>19134.1594806</v>
       </c>
     </row>
     <row r="663">
@@ -64155,7 +65024,87 @@
         <v>45131</v>
       </c>
       <c r="B663" t="n">
-        <v>19168.48744657999</v>
+        <v>19147.71848416</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" s="3" t="n">
+        <v>45132</v>
+      </c>
+      <c r="B664" t="n">
+        <v>19159.40549366</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" s="3" t="n">
+        <v>45133</v>
+      </c>
+      <c r="B665" t="n">
+        <v>19141.07710956</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" s="3" t="n">
+        <v>45134</v>
+      </c>
+      <c r="B666" t="n">
+        <v>19101.84725746</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" s="3" t="n">
+        <v>45135</v>
+      </c>
+      <c r="B667" t="n">
+        <v>19076.2502933</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" s="3" t="n">
+        <v>45136</v>
+      </c>
+      <c r="B668" t="n">
+        <v>19076.2502933</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" s="3" t="n">
+        <v>45137</v>
+      </c>
+      <c r="B669" t="n">
+        <v>19076.2502933</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" s="3" t="n">
+        <v>45138</v>
+      </c>
+      <c r="B670" t="n">
+        <v>18934.06200182</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" s="3" t="n">
+        <v>45139</v>
+      </c>
+      <c r="B671" t="n">
+        <v>18987.66373378</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" s="3" t="n">
+        <v>45140</v>
+      </c>
+      <c r="B672" t="n">
+        <v>18905.28079488</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" s="3" t="n">
+        <v>45141</v>
+      </c>
+      <c r="B673" t="n">
+        <v>18919.19973946</v>
       </c>
     </row>
   </sheetData>
@@ -64169,7 +65118,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B663"/>
+  <dimension ref="A1:B673"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69453,7 +70402,7 @@
         <v>45128</v>
       </c>
       <c r="B660" t="n">
-        <v>19148.44001101429</v>
+        <v>19132.77676631429</v>
       </c>
     </row>
     <row r="661">
@@ -69461,7 +70410,7 @@
         <v>45129</v>
       </c>
       <c r="B661" t="n">
-        <v>19148.44001101429</v>
+        <v>19132.77676631429</v>
       </c>
     </row>
     <row r="662">
@@ -69469,7 +70418,7 @@
         <v>45130</v>
       </c>
       <c r="B662" t="n">
-        <v>19148.44001101429</v>
+        <v>19132.77676631429</v>
       </c>
     </row>
     <row r="663">
@@ -69477,7 +70426,87 @@
         <v>45131</v>
       </c>
       <c r="B663" t="n">
-        <v>19162.06973229429</v>
+        <v>19134.15576987428</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" s="3" t="n">
+        <v>45132</v>
+      </c>
+      <c r="B664" t="n">
+        <v>19116.95877937429</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" s="3" t="n">
+        <v>45133</v>
+      </c>
+      <c r="B665" t="n">
+        <v>19135.16653813143</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" s="3" t="n">
+        <v>45134</v>
+      </c>
+      <c r="B666" t="n">
+        <v>19094.20268603143</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" s="3" t="n">
+        <v>45135</v>
+      </c>
+      <c r="B667" t="n">
+        <v>19070.33272187143</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" s="3" t="n">
+        <v>45136</v>
+      </c>
+      <c r="B668" t="n">
+        <v>19070.33272187143</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" s="3" t="n">
+        <v>45137</v>
+      </c>
+      <c r="B669" t="n">
+        <v>19070.33272187143</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" s="3" t="n">
+        <v>45138</v>
+      </c>
+      <c r="B670" t="n">
+        <v>18976.22043039143</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" s="3" t="n">
+        <v>45139</v>
+      </c>
+      <c r="B671" t="n">
+        <v>19073.53716235143</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" s="3" t="n">
+        <v>45140</v>
+      </c>
+      <c r="B672" t="n">
+        <v>18991.15422345143</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" s="3" t="n">
+        <v>45141</v>
+      </c>
+      <c r="B673" t="n">
+        <v>19005.07316803143</v>
       </c>
     </row>
   </sheetData>

--- a/NetLiquidity/NLQ_Data/NLQ_Data.xlsx
+++ b/NetLiquidity/NLQ_Data/NLQ_Data.xlsx
@@ -1235,7 +1235,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B674"/>
+  <dimension ref="A1:B679"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6631,7 +6631,47 @@
         <v>45142</v>
       </c>
       <c r="B674" t="n">
-        <v>5912.530999999999</v>
+        <v>5895.500999999999</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" s="3" t="n">
+        <v>45143</v>
+      </c>
+      <c r="B675" t="n">
+        <v>5895.500999999999</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" s="3" t="n">
+        <v>45144</v>
+      </c>
+      <c r="B676" t="n">
+        <v>5895.500999999999</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" s="3" t="n">
+        <v>45145</v>
+      </c>
+      <c r="B677" t="n">
+        <v>5878.722</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" s="3" t="n">
+        <v>45146</v>
+      </c>
+      <c r="B678" t="n">
+        <v>5910.954</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" s="3" t="n">
+        <v>45147</v>
+      </c>
+      <c r="B679" t="n">
+        <v>5910.954</v>
       </c>
     </row>
   </sheetData>
@@ -6645,7 +6685,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B674"/>
+  <dimension ref="A1:B679"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12033,7 +12073,7 @@
         <v>45141</v>
       </c>
       <c r="B673" t="n">
-        <v>5969.063999999998</v>
+        <v>5984.869999999999</v>
       </c>
     </row>
     <row r="674">
@@ -12041,7 +12081,47 @@
         <v>45142</v>
       </c>
       <c r="B674" t="n">
-        <v>5969.063999999998</v>
+        <v>5971.478999999999</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" s="3" t="n">
+        <v>45143</v>
+      </c>
+      <c r="B675" t="n">
+        <v>5971.478999999999</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" s="3" t="n">
+        <v>45144</v>
+      </c>
+      <c r="B676" t="n">
+        <v>5971.478999999999</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" s="3" t="n">
+        <v>45145</v>
+      </c>
+      <c r="B677" t="n">
+        <v>5944.846</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" s="3" t="n">
+        <v>45146</v>
+      </c>
+      <c r="B678" t="n">
+        <v>5977.078</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" s="3" t="n">
+        <v>45147</v>
+      </c>
+      <c r="B679" t="n">
+        <v>5977.078</v>
       </c>
     </row>
   </sheetData>

--- a/NetLiquidity/NLQ_Data/NLQ_Data.xlsx
+++ b/NetLiquidity/NLQ_Data/NLQ_Data.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B108"/>
+  <dimension ref="A1:B109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1324,6 +1324,14 @@
         <v>6022.503000000001</v>
       </c>
     </row>
+    <row r="109">
+      <c r="A109" s="3" t="n">
+        <v>45224</v>
+      </c>
+      <c r="B109" t="n">
+        <v>5972.795</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1335,7 +1343,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B755"/>
+  <dimension ref="A1:B761"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5441,6 +5449,39 @@
         <v>45223</v>
       </c>
     </row>
+    <row r="756">
+      <c r="A756" s="3" t="n">
+        <v>45224</v>
+      </c>
+      <c r="B756" t="n">
+        <v>24087.79707541</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" s="3" t="n">
+        <v>45225</v>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" s="3" t="n">
+        <v>45226</v>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" s="3" t="n">
+        <v>45227</v>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" s="3" t="n">
+        <v>45228</v>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" s="3" t="n">
+        <v>45229</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -5452,7 +5493,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B755"/>
+  <dimension ref="A1:B761"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11464,7 +11505,7 @@
         <v>45219</v>
       </c>
       <c r="B751" t="n">
-        <v>24199.72622929999</v>
+        <v>24179.91626</v>
       </c>
     </row>
     <row r="752">
@@ -11472,7 +11513,7 @@
         <v>45220</v>
       </c>
       <c r="B752" t="n">
-        <v>24199.72622929999</v>
+        <v>24179.91626</v>
       </c>
     </row>
     <row r="753">
@@ -11480,7 +11521,7 @@
         <v>45221</v>
       </c>
       <c r="B753" t="n">
-        <v>24199.72622929999</v>
+        <v>24179.91626</v>
       </c>
     </row>
     <row r="754">
@@ -11488,7 +11529,7 @@
         <v>45222</v>
       </c>
       <c r="B754" t="n">
-        <v>24237.85869945</v>
+        <v>24217.9075376</v>
       </c>
     </row>
     <row r="755">
@@ -11496,7 +11537,55 @@
         <v>45223</v>
       </c>
       <c r="B755" t="n">
-        <v>24268.270022</v>
+        <v>24308.38694639</v>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" s="3" t="n">
+        <v>45224</v>
+      </c>
+      <c r="B756" t="n">
+        <v>24087.79707541</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" s="3" t="n">
+        <v>45225</v>
+      </c>
+      <c r="B757" t="n">
+        <v>24090.40331874</v>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" s="3" t="n">
+        <v>45226</v>
+      </c>
+      <c r="B758" t="n">
+        <v>24107.46932289</v>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" s="3" t="n">
+        <v>45227</v>
+      </c>
+      <c r="B759" t="n">
+        <v>24107.46932289</v>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" s="3" t="n">
+        <v>45228</v>
+      </c>
+      <c r="B760" t="n">
+        <v>24107.46932289</v>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" s="3" t="n">
+        <v>45229</v>
+      </c>
+      <c r="B761" t="n">
+        <v>24113.17250274</v>
       </c>
     </row>
   </sheetData>
@@ -11510,7 +11599,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B755"/>
+  <dimension ref="A1:B761"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17522,7 +17611,7 @@
         <v>45219</v>
       </c>
       <c r="B751" t="n">
-        <v>24140.02551501428</v>
+        <v>24120.21554571429</v>
       </c>
     </row>
     <row r="752">
@@ -17530,7 +17619,7 @@
         <v>45220</v>
       </c>
       <c r="B752" t="n">
-        <v>24140.02551501428</v>
+        <v>24120.21554571429</v>
       </c>
     </row>
     <row r="753">
@@ -17538,7 +17627,7 @@
         <v>45221</v>
       </c>
       <c r="B753" t="n">
-        <v>24140.02551501428</v>
+        <v>24120.21554571429</v>
       </c>
     </row>
     <row r="754">
@@ -17546,7 +17635,7 @@
         <v>45222</v>
       </c>
       <c r="B754" t="n">
-        <v>24178.15798516429</v>
+        <v>24143.28982331429</v>
       </c>
     </row>
     <row r="755">
@@ -17554,7 +17643,55 @@
         <v>45223</v>
       </c>
       <c r="B755" t="n">
-        <v>24208.56930771429</v>
+        <v>24198.14923210429</v>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" s="3" t="n">
+        <v>45224</v>
+      </c>
+      <c r="B756" t="n">
+        <v>24074.83078969571</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" s="3" t="n">
+        <v>45225</v>
+      </c>
+      <c r="B757" t="n">
+        <v>24090.07303302571</v>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" s="3" t="n">
+        <v>45226</v>
+      </c>
+      <c r="B758" t="n">
+        <v>24107.13903717572</v>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" s="3" t="n">
+        <v>45227</v>
+      </c>
+      <c r="B759" t="n">
+        <v>24107.13903717572</v>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" s="3" t="n">
+        <v>45228</v>
+      </c>
+      <c r="B760" t="n">
+        <v>24107.13903717572</v>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" s="3" t="n">
+        <v>45229</v>
+      </c>
+      <c r="B761" t="n">
+        <v>24112.84221702571</v>
       </c>
     </row>
   </sheetData>
@@ -17568,7 +17705,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B755"/>
+  <dimension ref="A1:B761"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22321,6 +22458,44 @@
       </c>
       <c r="B755" t="inlineStr"/>
     </row>
+    <row r="756">
+      <c r="A756" s="3" t="n">
+        <v>45224</v>
+      </c>
+      <c r="B756" t="n">
+        <v>25233.29755337</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" s="3" t="n">
+        <v>45225</v>
+      </c>
+      <c r="B757" t="inlineStr"/>
+    </row>
+    <row r="758">
+      <c r="A758" s="3" t="n">
+        <v>45226</v>
+      </c>
+      <c r="B758" t="inlineStr"/>
+    </row>
+    <row r="759">
+      <c r="A759" s="3" t="n">
+        <v>45227</v>
+      </c>
+      <c r="B759" t="inlineStr"/>
+    </row>
+    <row r="760">
+      <c r="A760" s="3" t="n">
+        <v>45228</v>
+      </c>
+      <c r="B760" t="inlineStr"/>
+    </row>
+    <row r="761">
+      <c r="A761" s="3" t="n">
+        <v>45229</v>
+      </c>
+      <c r="B761" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -22332,7 +22507,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B755"/>
+  <dimension ref="A1:B761"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28344,7 +28519,7 @@
         <v>45219</v>
       </c>
       <c r="B751" t="n">
-        <v>25406.32418354</v>
+        <v>25386.51421424</v>
       </c>
     </row>
     <row r="752">
@@ -28352,7 +28527,7 @@
         <v>45220</v>
       </c>
       <c r="B752" t="n">
-        <v>25406.32418354</v>
+        <v>25386.51421424</v>
       </c>
     </row>
     <row r="753">
@@ -28360,7 +28535,7 @@
         <v>45221</v>
       </c>
       <c r="B753" t="n">
-        <v>25406.32418354</v>
+        <v>25386.51421424</v>
       </c>
     </row>
     <row r="754">
@@ -28368,7 +28543,7 @@
         <v>45222</v>
       </c>
       <c r="B754" t="n">
-        <v>25452.90855333</v>
+        <v>25432.95739148</v>
       </c>
     </row>
     <row r="755">
@@ -28376,7 +28551,55 @@
         <v>45223</v>
       </c>
       <c r="B755" t="n">
-        <v>25485.80981345</v>
+        <v>25525.92673784</v>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" s="3" t="n">
+        <v>45224</v>
+      </c>
+      <c r="B756" t="n">
+        <v>25233.29755337</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" s="3" t="n">
+        <v>45225</v>
+      </c>
+      <c r="B757" t="n">
+        <v>25237.50231024</v>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" s="3" t="n">
+        <v>45226</v>
+      </c>
+      <c r="B758" t="n">
+        <v>25253.61298973</v>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" s="3" t="n">
+        <v>45227</v>
+      </c>
+      <c r="B759" t="n">
+        <v>25253.61298973</v>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" s="3" t="n">
+        <v>45228</v>
+      </c>
+      <c r="B760" t="n">
+        <v>25253.61298973</v>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" s="3" t="n">
+        <v>45229</v>
+      </c>
+      <c r="B761" t="n">
+        <v>25258.83377792</v>
       </c>
     </row>
   </sheetData>
@@ -28390,7 +28613,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B755"/>
+  <dimension ref="A1:B761"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34402,7 +34625,7 @@
         <v>45219</v>
       </c>
       <c r="B751" t="n">
-        <v>25346.62346925429</v>
+        <v>25326.81349995429</v>
       </c>
     </row>
     <row r="752">
@@ -34410,7 +34633,7 @@
         <v>45220</v>
       </c>
       <c r="B752" t="n">
-        <v>25346.62346925429</v>
+        <v>25326.81349995429</v>
       </c>
     </row>
     <row r="753">
@@ -34418,7 +34641,7 @@
         <v>45221</v>
       </c>
       <c r="B753" t="n">
-        <v>25346.62346925429</v>
+        <v>25326.81349995429</v>
       </c>
     </row>
     <row r="754">
@@ -34426,7 +34649,7 @@
         <v>45222</v>
       </c>
       <c r="B754" t="n">
-        <v>25393.20783904428</v>
+        <v>25358.33967719429</v>
       </c>
     </row>
     <row r="755">
@@ -34434,7 +34657,55 @@
         <v>45223</v>
       </c>
       <c r="B755" t="n">
-        <v>25426.10909916428</v>
+        <v>25415.68902355429</v>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" s="3" t="n">
+        <v>45224</v>
+      </c>
+      <c r="B756" t="n">
+        <v>25220.33126765571</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" s="3" t="n">
+        <v>45225</v>
+      </c>
+      <c r="B757" t="n">
+        <v>25237.17202452571</v>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" s="3" t="n">
+        <v>45226</v>
+      </c>
+      <c r="B758" t="n">
+        <v>25253.28270401571</v>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" s="3" t="n">
+        <v>45227</v>
+      </c>
+      <c r="B759" t="n">
+        <v>25253.28270401571</v>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" s="3" t="n">
+        <v>45228</v>
+      </c>
+      <c r="B760" t="n">
+        <v>25253.28270401571</v>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" s="3" t="n">
+        <v>45229</v>
+      </c>
+      <c r="B761" t="n">
+        <v>25258.50349220571</v>
       </c>
     </row>
   </sheetData>
@@ -34448,7 +34719,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B755"/>
+  <dimension ref="A1:B761"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40492,7 +40763,55 @@
         <v>45223</v>
       </c>
       <c r="B755" t="n">
-        <v>6015.308000000001</v>
+        <v>6075.409000000001</v>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" s="3" t="n">
+        <v>45224</v>
+      </c>
+      <c r="B756" t="n">
+        <v>5972.795</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" s="3" t="n">
+        <v>45225</v>
+      </c>
+      <c r="B757" t="n">
+        <v>5983.562</v>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" s="3" t="n">
+        <v>45226</v>
+      </c>
+      <c r="B758" t="n">
+        <v>5981.554</v>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" s="3" t="n">
+        <v>45227</v>
+      </c>
+      <c r="B759" t="n">
+        <v>5981.554</v>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" s="3" t="n">
+        <v>45228</v>
+      </c>
+      <c r="B760" t="n">
+        <v>5981.554</v>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" s="3" t="n">
+        <v>45229</v>
+      </c>
+      <c r="B761" t="n">
+        <v>5981.554</v>
       </c>
     </row>
   </sheetData>
@@ -40506,7 +40825,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B755"/>
+  <dimension ref="A1:B761"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46542,7 +46861,7 @@
         <v>45222</v>
       </c>
       <c r="B754" t="n">
-        <v>5955.344999999999</v>
+        <v>5940.428</v>
       </c>
     </row>
     <row r="755">
@@ -46550,7 +46869,55 @@
         <v>45223</v>
       </c>
       <c r="B755" t="n">
-        <v>5955.344999999999</v>
+        <v>5964.909000000001</v>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" s="3" t="n">
+        <v>45224</v>
+      </c>
+      <c r="B756" t="n">
+        <v>5959.496</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" s="3" t="n">
+        <v>45225</v>
+      </c>
+      <c r="B757" t="n">
+        <v>5982.898999999999</v>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" s="3" t="n">
+        <v>45226</v>
+      </c>
+      <c r="B758" t="n">
+        <v>5980.891</v>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" s="3" t="n">
+        <v>45227</v>
+      </c>
+      <c r="B759" t="n">
+        <v>5980.891</v>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" s="3" t="n">
+        <v>45228</v>
+      </c>
+      <c r="B760" t="n">
+        <v>5980.891</v>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" s="3" t="n">
+        <v>45229</v>
+      </c>
+      <c r="B761" t="n">
+        <v>5980.891</v>
       </c>
     </row>
   </sheetData>
@@ -46564,7 +46931,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B755"/>
+  <dimension ref="A1:B761"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50670,6 +51037,39 @@
         <v>45223</v>
       </c>
     </row>
+    <row r="756">
+      <c r="A756" s="3" t="n">
+        <v>45224</v>
+      </c>
+      <c r="B756" t="n">
+        <v>13409.07436341</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" s="3" t="n">
+        <v>45225</v>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" s="3" t="n">
+        <v>45226</v>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" s="3" t="n">
+        <v>45227</v>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" s="3" t="n">
+        <v>45228</v>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" s="3" t="n">
+        <v>45229</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -50681,7 +51081,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B755"/>
+  <dimension ref="A1:B761"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56693,7 +57093,7 @@
         <v>45219</v>
       </c>
       <c r="B751" t="n">
-        <v>13509.69031</v>
+        <v>13489.8803407</v>
       </c>
     </row>
     <row r="752">
@@ -56701,7 +57101,7 @@
         <v>45220</v>
       </c>
       <c r="B752" t="n">
-        <v>13509.69031</v>
+        <v>13489.8803407</v>
       </c>
     </row>
     <row r="753">
@@ -56709,7 +57109,7 @@
         <v>45221</v>
       </c>
       <c r="B753" t="n">
-        <v>13509.69031</v>
+        <v>13489.8803407</v>
       </c>
     </row>
     <row r="754">
@@ -56717,7 +57117,7 @@
         <v>45222</v>
       </c>
       <c r="B754" t="n">
-        <v>13543.748395</v>
+        <v>13523.79723315</v>
       </c>
     </row>
     <row r="755">
@@ -56725,7 +57125,55 @@
         <v>45223</v>
       </c>
       <c r="B755" t="n">
-        <v>13556.168187</v>
+        <v>13596.28511139</v>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" s="3" t="n">
+        <v>45224</v>
+      </c>
+      <c r="B756" t="n">
+        <v>13409.07436341</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" s="3" t="n">
+        <v>45225</v>
+      </c>
+      <c r="B757" t="n">
+        <v>13417.16692379</v>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" s="3" t="n">
+        <v>45226</v>
+      </c>
+      <c r="B758" t="n">
+        <v>13412.69562414</v>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" s="3" t="n">
+        <v>45227</v>
+      </c>
+      <c r="B759" t="n">
+        <v>13412.69562414</v>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" s="3" t="n">
+        <v>45228</v>
+      </c>
+      <c r="B760" t="n">
+        <v>13412.69562414</v>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" s="3" t="n">
+        <v>45229</v>
+      </c>
+      <c r="B761" t="n">
+        <v>13416.00348367</v>
       </c>
     </row>
   </sheetData>
@@ -56739,7 +57187,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B755"/>
+  <dimension ref="A1:B761"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62751,7 +63199,7 @@
         <v>45219</v>
       </c>
       <c r="B751" t="n">
-        <v>13449.98959571428</v>
+        <v>13430.17962641428</v>
       </c>
     </row>
     <row r="752">
@@ -62759,7 +63207,7 @@
         <v>45220</v>
       </c>
       <c r="B752" t="n">
-        <v>13449.98959571428</v>
+        <v>13430.17962641428</v>
       </c>
     </row>
     <row r="753">
@@ -62767,7 +63215,7 @@
         <v>45221</v>
       </c>
       <c r="B753" t="n">
-        <v>13449.98959571428</v>
+        <v>13430.17962641428</v>
       </c>
     </row>
     <row r="754">
@@ -62775,7 +63223,7 @@
         <v>45222</v>
       </c>
       <c r="B754" t="n">
-        <v>13484.04768071429</v>
+        <v>13449.17951886429</v>
       </c>
     </row>
     <row r="755">
@@ -62783,7 +63231,55 @@
         <v>45223</v>
       </c>
       <c r="B755" t="n">
-        <v>13496.46747271428</v>
+        <v>13486.04739710429</v>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" s="3" t="n">
+        <v>45224</v>
+      </c>
+      <c r="B756" t="n">
+        <v>13396.10807769571</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" s="3" t="n">
+        <v>45225</v>
+      </c>
+      <c r="B757" t="n">
+        <v>13416.83663807571</v>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" s="3" t="n">
+        <v>45226</v>
+      </c>
+      <c r="B758" t="n">
+        <v>13412.36533842571</v>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" s="3" t="n">
+        <v>45227</v>
+      </c>
+      <c r="B759" t="n">
+        <v>13412.36533842571</v>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" s="3" t="n">
+        <v>45228</v>
+      </c>
+      <c r="B760" t="n">
+        <v>13412.36533842571</v>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" s="3" t="n">
+        <v>45229</v>
+      </c>
+      <c r="B761" t="n">
+        <v>13415.67319795571</v>
       </c>
     </row>
   </sheetData>
@@ -62797,7 +63293,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B755"/>
+  <dimension ref="A1:B761"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66903,6 +67399,39 @@
         <v>45223</v>
       </c>
     </row>
+    <row r="756">
+      <c r="A756" s="3" t="n">
+        <v>45224</v>
+      </c>
+      <c r="B756" t="n">
+        <v>18392.08916661</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" s="3" t="n">
+        <v>45225</v>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" s="3" t="n">
+        <v>45226</v>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" s="3" t="n">
+        <v>45227</v>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" s="3" t="n">
+        <v>45228</v>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" s="3" t="n">
+        <v>45229</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -66914,7 +67443,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B755"/>
+  <dimension ref="A1:B761"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72926,7 +73455,7 @@
         <v>45219</v>
       </c>
       <c r="B751" t="n">
-        <v>18503.1846396</v>
+        <v>18483.3746703</v>
       </c>
     </row>
     <row r="752">
@@ -72934,7 +73463,7 @@
         <v>45220</v>
       </c>
       <c r="B752" t="n">
-        <v>18503.1846396</v>
+        <v>18483.3746703</v>
       </c>
     </row>
     <row r="753">
@@ -72942,7 +73471,7 @@
         <v>45221</v>
       </c>
       <c r="B753" t="n">
-        <v>18503.1846396</v>
+        <v>18483.3746703</v>
       </c>
     </row>
     <row r="754">
@@ -72950,7 +73479,7 @@
         <v>45222</v>
       </c>
       <c r="B754" t="n">
-        <v>18541.7339502</v>
+        <v>18521.78278835</v>
       </c>
     </row>
     <row r="755">
@@ -72958,7 +73487,55 @@
         <v>45223</v>
       </c>
       <c r="B755" t="n">
-        <v>18560.8905806</v>
+        <v>18601.00750499</v>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" s="3" t="n">
+        <v>45224</v>
+      </c>
+      <c r="B756" t="n">
+        <v>18392.08916661</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" s="3" t="n">
+        <v>45225</v>
+      </c>
+      <c r="B757" t="n">
+        <v>18393.44488859</v>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" s="3" t="n">
+        <v>45226</v>
+      </c>
+      <c r="B758" t="n">
+        <v>18412.17825454</v>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" s="3" t="n">
+        <v>45227</v>
+      </c>
+      <c r="B759" t="n">
+        <v>18412.17825454</v>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" s="3" t="n">
+        <v>45228</v>
+      </c>
+      <c r="B760" t="n">
+        <v>18412.17825454</v>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" s="3" t="n">
+        <v>45229</v>
+      </c>
+      <c r="B761" t="n">
+        <v>18417.88143439</v>
       </c>
     </row>
   </sheetData>
@@ -72972,7 +73549,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B755"/>
+  <dimension ref="A1:B761"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78984,7 +79561,7 @@
         <v>45219</v>
       </c>
       <c r="B751" t="n">
-        <v>18443.48392531429</v>
+        <v>18423.67395601429</v>
       </c>
     </row>
     <row r="752">
@@ -78992,7 +79569,7 @@
         <v>45220</v>
       </c>
       <c r="B752" t="n">
-        <v>18443.48392531429</v>
+        <v>18423.67395601429</v>
       </c>
     </row>
     <row r="753">
@@ -79000,7 +79577,7 @@
         <v>45221</v>
       </c>
       <c r="B753" t="n">
-        <v>18443.48392531429</v>
+        <v>18423.67395601429</v>
       </c>
     </row>
     <row r="754">
@@ -79008,7 +79585,7 @@
         <v>45222</v>
       </c>
       <c r="B754" t="n">
-        <v>18482.03323591428</v>
+        <v>18447.16507406429</v>
       </c>
     </row>
     <row r="755">
@@ -79016,7 +79593,55 @@
         <v>45223</v>
       </c>
       <c r="B755" t="n">
-        <v>18501.18986631429</v>
+        <v>18490.76979070429</v>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" s="3" t="n">
+        <v>45224</v>
+      </c>
+      <c r="B756" t="n">
+        <v>18379.12288089571</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" s="3" t="n">
+        <v>45225</v>
+      </c>
+      <c r="B757" t="n">
+        <v>18393.11460287571</v>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" s="3" t="n">
+        <v>45226</v>
+      </c>
+      <c r="B758" t="n">
+        <v>18411.84796882571</v>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" s="3" t="n">
+        <v>45227</v>
+      </c>
+      <c r="B759" t="n">
+        <v>18411.84796882571</v>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" s="3" t="n">
+        <v>45228</v>
+      </c>
+      <c r="B760" t="n">
+        <v>18411.84796882571</v>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" s="3" t="n">
+        <v>45229</v>
+      </c>
+      <c r="B761" t="n">
+        <v>18417.55114867571</v>
       </c>
     </row>
   </sheetData>

--- a/NetLiquidity/NLQ_Data/NLQ_Data.xlsx
+++ b/NetLiquidity/NLQ_Data/NLQ_Data.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B111"/>
+  <dimension ref="A1:B112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1336,6 +1336,14 @@
         <v>6063.554</v>
       </c>
     </row>
+    <row r="112">
+      <c r="A112" s="3" t="n">
+        <v>45245</v>
+      </c>
+      <c r="B112" t="n">
+        <v>6132.188</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1347,7 +1355,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B778"/>
+  <dimension ref="A1:B783"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7567,7 +7575,7 @@
         <v>45245</v>
       </c>
       <c r="B777" t="n">
-        <v>6143.764</v>
+        <v>6132.188</v>
       </c>
     </row>
     <row r="778">
@@ -7575,7 +7583,47 @@
         <v>45246</v>
       </c>
       <c r="B778" t="n">
-        <v>6143.764</v>
+        <v>6164.419</v>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" s="3" t="n">
+        <v>45247</v>
+      </c>
+      <c r="B779" t="n">
+        <v>6140.626</v>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" s="3" t="n">
+        <v>45248</v>
+      </c>
+      <c r="B780" t="n">
+        <v>6140.626</v>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" s="3" t="n">
+        <v>45249</v>
+      </c>
+      <c r="B781" t="n">
+        <v>6140.626</v>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" s="3" t="n">
+        <v>45250</v>
+      </c>
+      <c r="B782" t="n">
+        <v>6123.341</v>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" s="3" t="n">
+        <v>45251</v>
+      </c>
+      <c r="B783" t="n">
+        <v>6123.341</v>
       </c>
     </row>
   </sheetData>
@@ -7589,7 +7637,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B778"/>
+  <dimension ref="A1:B783"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13809,7 +13857,7 @@
         <v>45245</v>
       </c>
       <c r="B777" t="n">
-        <v>6144.715</v>
+        <v>6200.774</v>
       </c>
     </row>
     <row r="778">
@@ -13817,7 +13865,47 @@
         <v>45246</v>
       </c>
       <c r="B778" t="n">
-        <v>6144.715</v>
+        <v>6203.719999999999</v>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" s="3" t="n">
+        <v>45247</v>
+      </c>
+      <c r="B779" t="n">
+        <v>6176.562</v>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" s="3" t="n">
+        <v>45248</v>
+      </c>
+      <c r="B780" t="n">
+        <v>6176.562</v>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" s="3" t="n">
+        <v>45249</v>
+      </c>
+      <c r="B781" t="n">
+        <v>6176.562</v>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" s="3" t="n">
+        <v>45250</v>
+      </c>
+      <c r="B782" t="n">
+        <v>6159.277</v>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" s="3" t="n">
+        <v>45251</v>
+      </c>
+      <c r="B783" t="n">
+        <v>6159.277</v>
       </c>
     </row>
   </sheetData>

--- a/NetLiquidity/NLQ_Data/NLQ_Data.xlsx
+++ b/NetLiquidity/NLQ_Data/NLQ_Data.xlsx
@@ -473,7 +473,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B112"/>
+  <dimension ref="A1:B113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1381,6 +1381,14 @@
         <v>6132.188</v>
       </c>
     </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>45252</v>
+      </c>
+      <c r="B113" t="n">
+        <v>6173.193</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1392,7 +1400,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B786"/>
+  <dimension ref="A1:B792"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5654,6 +5662,9 @@
       <c r="A784" s="4" t="n">
         <v>45252</v>
       </c>
+      <c r="B784" t="n">
+        <v>24867.70381646</v>
+      </c>
     </row>
     <row r="785">
       <c r="A785" s="4" t="n">
@@ -5663,6 +5674,36 @@
     <row r="786">
       <c r="A786" s="4" t="n">
         <v>45254</v>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" s="4" t="n">
+        <v>45255</v>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" s="4" t="n">
+        <v>45256</v>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" s="4" t="n">
+        <v>45257</v>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" s="4" t="n">
+        <v>45258</v>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" s="4" t="n">
+        <v>45259</v>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" s="4" t="n">
+        <v>45260</v>
       </c>
     </row>
   </sheetData>
@@ -5676,7 +5717,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B786"/>
+  <dimension ref="A1:B792"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11952,7 +11993,7 @@
         <v>45252</v>
       </c>
       <c r="B784" t="n">
-        <v>24839.33581646</v>
+        <v>24867.70381646</v>
       </c>
     </row>
     <row r="785">
@@ -11960,7 +12001,7 @@
         <v>45253</v>
       </c>
       <c r="B785" t="n">
-        <v>24856.4785832</v>
+        <v>24884.8465832</v>
       </c>
     </row>
     <row r="786">
@@ -11968,7 +12009,55 @@
         <v>45254</v>
       </c>
       <c r="B786" t="n">
-        <v>24861.32150754</v>
+        <v>24949.63341738</v>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" s="4" t="n">
+        <v>45255</v>
+      </c>
+      <c r="B787" t="n">
+        <v>24949.63341738</v>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" s="4" t="n">
+        <v>45256</v>
+      </c>
+      <c r="B788" t="n">
+        <v>24949.63341738</v>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" s="4" t="n">
+        <v>45257</v>
+      </c>
+      <c r="B789" t="n">
+        <v>25002.71895385</v>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" s="4" t="n">
+        <v>45258</v>
+      </c>
+      <c r="B790" t="n">
+        <v>25071.18405674</v>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" s="4" t="n">
+        <v>45259</v>
+      </c>
+      <c r="B791" t="n">
+        <v>25035.34170268</v>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" s="4" t="n">
+        <v>45260</v>
+      </c>
+      <c r="B792" t="n">
+        <v>25058.03679066</v>
       </c>
     </row>
   </sheetData>
@@ -11982,7 +12071,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B786"/>
+  <dimension ref="A1:B792"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18258,7 +18347,7 @@
         <v>45252</v>
       </c>
       <c r="B784" t="n">
-        <v>24849.95738788857</v>
+        <v>24880.95767360286</v>
       </c>
     </row>
     <row r="785">
@@ -18266,7 +18355,7 @@
         <v>45253</v>
       </c>
       <c r="B785" t="n">
-        <v>24867.10015462857</v>
+        <v>24898.10044034286</v>
       </c>
     </row>
     <row r="786">
@@ -18274,7 +18363,55 @@
         <v>45254</v>
       </c>
       <c r="B786" t="n">
-        <v>24871.94307896857</v>
+        <v>24914.67027452286</v>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" s="4" t="n">
+        <v>45255</v>
+      </c>
+      <c r="B787" t="n">
+        <v>24914.67027452286</v>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" s="4" t="n">
+        <v>45256</v>
+      </c>
+      <c r="B788" t="n">
+        <v>24914.67027452286</v>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" s="4" t="n">
+        <v>45257</v>
+      </c>
+      <c r="B789" t="n">
+        <v>24955.49381099286</v>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" s="4" t="n">
+        <v>45258</v>
+      </c>
+      <c r="B790" t="n">
+        <v>25026.72091388285</v>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" s="4" t="n">
+        <v>45259</v>
+      </c>
+      <c r="B791" t="n">
+        <v>24990.87855982286</v>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" s="4" t="n">
+        <v>45260</v>
+      </c>
+      <c r="B792" t="n">
+        <v>25013.57364780286</v>
       </c>
     </row>
   </sheetData>
@@ -18288,7 +18425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B786"/>
+  <dimension ref="A1:B792"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23221,7 +23358,9 @@
       <c r="A784" s="4" t="n">
         <v>45252</v>
       </c>
-      <c r="B784" t="inlineStr"/>
+      <c r="B784" t="n">
+        <v>26049.5478667</v>
+      </c>
     </row>
     <row r="785">
       <c r="A785" s="4" t="n">
@@ -23234,6 +23373,42 @@
         <v>45254</v>
       </c>
       <c r="B786" t="inlineStr"/>
+    </row>
+    <row r="787">
+      <c r="A787" s="4" t="n">
+        <v>45255</v>
+      </c>
+      <c r="B787" t="inlineStr"/>
+    </row>
+    <row r="788">
+      <c r="A788" s="4" t="n">
+        <v>45256</v>
+      </c>
+      <c r="B788" t="inlineStr"/>
+    </row>
+    <row r="789">
+      <c r="A789" s="4" t="n">
+        <v>45257</v>
+      </c>
+      <c r="B789" t="inlineStr"/>
+    </row>
+    <row r="790">
+      <c r="A790" s="4" t="n">
+        <v>45258</v>
+      </c>
+      <c r="B790" t="inlineStr"/>
+    </row>
+    <row r="791">
+      <c r="A791" s="4" t="n">
+        <v>45259</v>
+      </c>
+      <c r="B791" t="inlineStr"/>
+    </row>
+    <row r="792">
+      <c r="A792" s="4" t="n">
+        <v>45260</v>
+      </c>
+      <c r="B792" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -23246,7 +23421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B786"/>
+  <dimension ref="A1:B792"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29522,7 +29697,7 @@
         <v>45252</v>
       </c>
       <c r="B784" t="n">
-        <v>26021.1798667</v>
+        <v>26049.5478667</v>
       </c>
     </row>
     <row r="785">
@@ -29530,7 +29705,7 @@
         <v>45253</v>
       </c>
       <c r="B785" t="n">
-        <v>26041.95508912</v>
+        <v>26070.32308912</v>
       </c>
     </row>
     <row r="786">
@@ -29538,7 +29713,55 @@
         <v>45254</v>
       </c>
       <c r="B786" t="n">
-        <v>26047.74396546</v>
+        <v>26136.0558753</v>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" s="4" t="n">
+        <v>45255</v>
+      </c>
+      <c r="B787" t="n">
+        <v>26136.0558753</v>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" s="4" t="n">
+        <v>45256</v>
+      </c>
+      <c r="B788" t="n">
+        <v>26136.0558753</v>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" s="4" t="n">
+        <v>45257</v>
+      </c>
+      <c r="B789" t="n">
+        <v>26197.12524665</v>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" s="4" t="n">
+        <v>45258</v>
+      </c>
+      <c r="B790" t="n">
+        <v>26271.9093089</v>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" s="4" t="n">
+        <v>45259</v>
+      </c>
+      <c r="B791" t="n">
+        <v>26236.15209052</v>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" s="4" t="n">
+        <v>45260</v>
+      </c>
+      <c r="B792" t="n">
+        <v>26259.6512377</v>
       </c>
     </row>
   </sheetData>
@@ -29552,7 +29775,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B786"/>
+  <dimension ref="A1:B792"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35828,7 +36051,7 @@
         <v>45252</v>
       </c>
       <c r="B784" t="n">
-        <v>26031.80143812857</v>
+        <v>26062.80172384286</v>
       </c>
     </row>
     <row r="785">
@@ -35836,7 +36059,7 @@
         <v>45253</v>
       </c>
       <c r="B785" t="n">
-        <v>26052.57666054857</v>
+        <v>26083.57694626286</v>
       </c>
     </row>
     <row r="786">
@@ -35844,7 +36067,55 @@
         <v>45254</v>
       </c>
       <c r="B786" t="n">
-        <v>26058.36553688857</v>
+        <v>26101.09273244286</v>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" s="4" t="n">
+        <v>45255</v>
+      </c>
+      <c r="B787" t="n">
+        <v>26101.09273244286</v>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" s="4" t="n">
+        <v>45256</v>
+      </c>
+      <c r="B788" t="n">
+        <v>26101.09273244286</v>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" s="4" t="n">
+        <v>45257</v>
+      </c>
+      <c r="B789" t="n">
+        <v>26149.90010379285</v>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" s="4" t="n">
+        <v>45258</v>
+      </c>
+      <c r="B790" t="n">
+        <v>26227.44616604285</v>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" s="4" t="n">
+        <v>45259</v>
+      </c>
+      <c r="B791" t="n">
+        <v>26191.68894766286</v>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" s="4" t="n">
+        <v>45260</v>
+      </c>
+      <c r="B792" t="n">
+        <v>26215.18809484286</v>
       </c>
     </row>
   </sheetData>
@@ -35858,7 +36129,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B786"/>
+  <dimension ref="A1:B792"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42134,7 +42405,7 @@
         <v>45252</v>
       </c>
       <c r="B784" t="n">
-        <v>6144.825</v>
+        <v>6173.193</v>
       </c>
     </row>
     <row r="785">
@@ -42142,7 +42413,7 @@
         <v>45253</v>
       </c>
       <c r="B785" t="n">
-        <v>6144.825</v>
+        <v>6173.193</v>
       </c>
     </row>
     <row r="786">
@@ -42150,7 +42421,55 @@
         <v>45254</v>
       </c>
       <c r="B786" t="n">
-        <v>6144.825</v>
+        <v>6238.89</v>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" s="4" t="n">
+        <v>45255</v>
+      </c>
+      <c r="B787" t="n">
+        <v>6238.89</v>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" s="4" t="n">
+        <v>45256</v>
+      </c>
+      <c r="B788" t="n">
+        <v>6238.89</v>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" s="4" t="n">
+        <v>45257</v>
+      </c>
+      <c r="B789" t="n">
+        <v>6237.577</v>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" s="4" t="n">
+        <v>45258</v>
+      </c>
+      <c r="B790" t="n">
+        <v>6231.453</v>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" s="4" t="n">
+        <v>45259</v>
+      </c>
+      <c r="B791" t="n">
+        <v>6190.610000000001</v>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" s="4" t="n">
+        <v>45260</v>
+      </c>
+      <c r="B792" t="n">
+        <v>6190.610000000001</v>
       </c>
     </row>
   </sheetData>
@@ -42164,7 +42483,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B786"/>
+  <dimension ref="A1:B792"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48440,7 +48759,7 @@
         <v>45252</v>
       </c>
       <c r="B784" t="n">
-        <v>6155.187</v>
+        <v>6186.203</v>
       </c>
     </row>
     <row r="785">
@@ -48448,7 +48767,7 @@
         <v>45253</v>
       </c>
       <c r="B785" t="n">
-        <v>6155.187</v>
+        <v>6186.203</v>
       </c>
     </row>
     <row r="786">
@@ -48456,7 +48775,55 @@
         <v>45254</v>
       </c>
       <c r="B786" t="n">
-        <v>6155.187</v>
+        <v>6203.683</v>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" s="4" t="n">
+        <v>45255</v>
+      </c>
+      <c r="B787" t="n">
+        <v>6203.683</v>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" s="4" t="n">
+        <v>45256</v>
+      </c>
+      <c r="B788" t="n">
+        <v>6203.683</v>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" s="4" t="n">
+        <v>45257</v>
+      </c>
+      <c r="B789" t="n">
+        <v>6190.108</v>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" s="4" t="n">
+        <v>45258</v>
+      </c>
+      <c r="B790" t="n">
+        <v>6186.746</v>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" s="4" t="n">
+        <v>45259</v>
+      </c>
+      <c r="B791" t="n">
+        <v>6145.903</v>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" s="4" t="n">
+        <v>45260</v>
+      </c>
+      <c r="B792" t="n">
+        <v>6145.903</v>
       </c>
     </row>
   </sheetData>
@@ -48470,7 +48837,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B786"/>
+  <dimension ref="A1:B792"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -52732,6 +53099,9 @@
       <c r="A784" s="4" t="n">
         <v>45252</v>
       </c>
+      <c r="B784" t="n">
+        <v>13796.10130386</v>
+      </c>
     </row>
     <row r="785">
       <c r="A785" s="4" t="n">
@@ -52741,6 +53111,36 @@
     <row r="786">
       <c r="A786" s="4" t="n">
         <v>45254</v>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" s="4" t="n">
+        <v>45255</v>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" s="4" t="n">
+        <v>45256</v>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" s="4" t="n">
+        <v>45257</v>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" s="4" t="n">
+        <v>45258</v>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" s="4" t="n">
+        <v>45259</v>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" s="4" t="n">
+        <v>45260</v>
       </c>
     </row>
   </sheetData>
@@ -52754,7 +53154,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B786"/>
+  <dimension ref="A1:B792"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59030,7 +59430,7 @@
         <v>45252</v>
       </c>
       <c r="B784" t="n">
-        <v>13767.73330386</v>
+        <v>13796.10130386</v>
       </c>
     </row>
     <row r="785">
@@ -59038,7 +59438,7 @@
         <v>45253</v>
       </c>
       <c r="B785" t="n">
-        <v>13777.3947846</v>
+        <v>13805.7627846</v>
       </c>
     </row>
     <row r="786">
@@ -59046,7 +59446,55 @@
         <v>45254</v>
       </c>
       <c r="B786" t="n">
-        <v>13781.87547132</v>
+        <v>13870.18738116</v>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" s="4" t="n">
+        <v>45255</v>
+      </c>
+      <c r="B787" t="n">
+        <v>13870.18738116</v>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" s="4" t="n">
+        <v>45256</v>
+      </c>
+      <c r="B788" t="n">
+        <v>13870.18738116</v>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" s="4" t="n">
+        <v>45257</v>
+      </c>
+      <c r="B789" t="n">
+        <v>13900.42543465</v>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" s="4" t="n">
+        <v>45258</v>
+      </c>
+      <c r="B790" t="n">
+        <v>13921.65500874</v>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" s="4" t="n">
+        <v>45259</v>
+      </c>
+      <c r="B791" t="n">
+        <v>13864.44183908</v>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" s="4" t="n">
+        <v>45260</v>
+      </c>
+      <c r="B792" t="n">
+        <v>13874.37587366</v>
       </c>
     </row>
   </sheetData>
@@ -59060,7 +59508,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B786"/>
+  <dimension ref="A1:B792"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65336,7 +65784,7 @@
         <v>45252</v>
       </c>
       <c r="B784" t="n">
-        <v>13778.35487528857</v>
+        <v>13809.35516100286</v>
       </c>
     </row>
     <row r="785">
@@ -65344,7 +65792,7 @@
         <v>45253</v>
       </c>
       <c r="B785" t="n">
-        <v>13788.01635602857</v>
+        <v>13819.01664174286</v>
       </c>
     </row>
     <row r="786">
@@ -65352,7 +65800,55 @@
         <v>45254</v>
       </c>
       <c r="B786" t="n">
-        <v>13792.49704274857</v>
+        <v>13835.22423830286</v>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" s="4" t="n">
+        <v>45255</v>
+      </c>
+      <c r="B787" t="n">
+        <v>13835.22423830286</v>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" s="4" t="n">
+        <v>45256</v>
+      </c>
+      <c r="B788" t="n">
+        <v>13835.22423830286</v>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" s="4" t="n">
+        <v>45257</v>
+      </c>
+      <c r="B789" t="n">
+        <v>13853.20029179286</v>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" s="4" t="n">
+        <v>45258</v>
+      </c>
+      <c r="B790" t="n">
+        <v>13877.19186588286</v>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" s="4" t="n">
+        <v>45259</v>
+      </c>
+      <c r="B791" t="n">
+        <v>13819.97869622286</v>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" s="4" t="n">
+        <v>45260</v>
+      </c>
+      <c r="B792" t="n">
+        <v>13829.91273080286</v>
       </c>
     </row>
   </sheetData>
@@ -65366,7 +65862,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B786"/>
+  <dimension ref="A1:B792"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69628,6 +70124,9 @@
       <c r="A784" s="4" t="n">
         <v>45252</v>
       </c>
+      <c r="B784" t="n">
+        <v>18814.19789086</v>
+      </c>
     </row>
     <row r="785">
       <c r="A785" s="4" t="n">
@@ -69637,6 +70136,36 @@
     <row r="786">
       <c r="A786" s="4" t="n">
         <v>45254</v>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" s="4" t="n">
+        <v>45255</v>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" s="4" t="n">
+        <v>45256</v>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" s="4" t="n">
+        <v>45257</v>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" s="4" t="n">
+        <v>45258</v>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" s="4" t="n">
+        <v>45259</v>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" s="4" t="n">
+        <v>45260</v>
       </c>
     </row>
   </sheetData>
@@ -69650,7 +70179,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B786"/>
+  <dimension ref="A1:B792"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75926,7 +76455,7 @@
         <v>45252</v>
       </c>
       <c r="B784" t="n">
-        <v>18785.82989086</v>
+        <v>18814.19789086</v>
       </c>
     </row>
     <row r="785">
@@ -75934,7 +76463,7 @@
         <v>45253</v>
       </c>
       <c r="B785" t="n">
-        <v>18794.7407214</v>
+        <v>18823.1087214</v>
       </c>
     </row>
     <row r="786">
@@ -75942,7 +76471,55 @@
         <v>45254</v>
       </c>
       <c r="B786" t="n">
-        <v>18803.04972414</v>
+        <v>18891.36163398</v>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" s="4" t="n">
+        <v>45255</v>
+      </c>
+      <c r="B787" t="n">
+        <v>18891.36163398</v>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" s="4" t="n">
+        <v>45256</v>
+      </c>
+      <c r="B788" t="n">
+        <v>18891.36163398</v>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" s="4" t="n">
+        <v>45257</v>
+      </c>
+      <c r="B789" t="n">
+        <v>18947.04672925</v>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" s="4" t="n">
+        <v>45258</v>
+      </c>
+      <c r="B790" t="n">
+        <v>19010.31271454</v>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" s="4" t="n">
+        <v>45259</v>
+      </c>
+      <c r="B791" t="n">
+        <v>18960.60604688</v>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" s="4" t="n">
+        <v>45260</v>
+      </c>
+      <c r="B792" t="n">
+        <v>18983.30113486</v>
       </c>
     </row>
   </sheetData>
@@ -75956,7 +76533,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B786"/>
+  <dimension ref="A1:B792"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82232,7 +82809,7 @@
         <v>45252</v>
       </c>
       <c r="B784" t="n">
-        <v>18796.45146228857</v>
+        <v>18827.45174800286</v>
       </c>
     </row>
     <row r="785">
@@ -82240,7 +82817,7 @@
         <v>45253</v>
       </c>
       <c r="B785" t="n">
-        <v>18805.36229282857</v>
+        <v>18836.36257854286</v>
       </c>
     </row>
     <row r="786">
@@ -82248,7 +82825,55 @@
         <v>45254</v>
       </c>
       <c r="B786" t="n">
-        <v>18813.67129556857</v>
+        <v>18856.39849112286</v>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" s="4" t="n">
+        <v>45255</v>
+      </c>
+      <c r="B787" t="n">
+        <v>18856.39849112286</v>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" s="4" t="n">
+        <v>45256</v>
+      </c>
+      <c r="B788" t="n">
+        <v>18856.39849112286</v>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" s="4" t="n">
+        <v>45257</v>
+      </c>
+      <c r="B789" t="n">
+        <v>18899.82158639286</v>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" s="4" t="n">
+        <v>45258</v>
+      </c>
+      <c r="B790" t="n">
+        <v>18965.84957168285</v>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" s="4" t="n">
+        <v>45259</v>
+      </c>
+      <c r="B791" t="n">
+        <v>18916.14290402286</v>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" s="4" t="n">
+        <v>45260</v>
+      </c>
+      <c r="B792" t="n">
+        <v>18938.83799200286</v>
       </c>
     </row>
   </sheetData>

--- a/NetLiquidity/NLQ_Data/NLQ_Data.xlsx
+++ b/NetLiquidity/NLQ_Data/NLQ_Data.xlsx
@@ -464,7 +464,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B105"/>
+  <dimension ref="A1:B107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1316,6 +1316,22 @@
         <v>6162.507000000001</v>
       </c>
     </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>45294</v>
+      </c>
+      <c r="B106" t="n">
+        <v>6202.679</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>45301</v>
+      </c>
+      <c r="B107" t="n">
+        <v>6259.184</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1327,7 +1343,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B731"/>
+  <dimension ref="A1:B743"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7182,6 +7198,102 @@
         <v>5962.893</v>
       </c>
     </row>
+    <row r="732">
+      <c r="A732" s="4" t="n">
+        <v>45292</v>
+      </c>
+      <c r="B732" t="n">
+        <v>5962.893</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" s="4" t="n">
+        <v>45293</v>
+      </c>
+      <c r="B733" t="n">
+        <v>6276.512000000001</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" s="4" t="n">
+        <v>45294</v>
+      </c>
+      <c r="B734" t="n">
+        <v>6202.679</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" s="4" t="n">
+        <v>45295</v>
+      </c>
+      <c r="B735" t="n">
+        <v>6257.677</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" s="4" t="n">
+        <v>45296</v>
+      </c>
+      <c r="B736" t="n">
+        <v>6228.098</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" s="4" t="n">
+        <v>45297</v>
+      </c>
+      <c r="B737" t="n">
+        <v>6228.098</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" s="4" t="n">
+        <v>45298</v>
+      </c>
+      <c r="B738" t="n">
+        <v>6228.098</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" s="4" t="n">
+        <v>45299</v>
+      </c>
+      <c r="B739" t="n">
+        <v>6231.091</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" s="4" t="n">
+        <v>45300</v>
+      </c>
+      <c r="B740" t="n">
+        <v>6246.526</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" s="4" t="n">
+        <v>45301</v>
+      </c>
+      <c r="B741" t="n">
+        <v>6259.184</v>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" s="4" t="n">
+        <v>45302</v>
+      </c>
+      <c r="B742" t="n">
+        <v>6312.775000000001</v>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" s="4" t="n">
+        <v>45303</v>
+      </c>
+      <c r="B743" t="n">
+        <v>6312.775000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -7193,7 +7305,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B731"/>
+  <dimension ref="A1:B743"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13029,7 +13141,7 @@
         <v>45289</v>
       </c>
       <c r="B729" t="n">
-        <v>5969.625285714285</v>
+        <v>5926.008285714285</v>
       </c>
     </row>
     <row r="730">
@@ -13037,7 +13149,7 @@
         <v>45290</v>
       </c>
       <c r="B730" t="n">
-        <v>5969.625285714285</v>
+        <v>5926.008285714285</v>
       </c>
     </row>
     <row r="731">
@@ -13045,7 +13157,103 @@
         <v>45291</v>
       </c>
       <c r="B731" t="n">
-        <v>5969.625285714285</v>
+        <v>5926.008285714285</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" s="4" t="n">
+        <v>45292</v>
+      </c>
+      <c r="B732" t="n">
+        <v>5926.008285714285</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" s="4" t="n">
+        <v>45293</v>
+      </c>
+      <c r="B733" t="n">
+        <v>6241.877285714285</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" s="4" t="n">
+        <v>45294</v>
+      </c>
+      <c r="B734" t="n">
+        <v>6218.094857142858</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" s="4" t="n">
+        <v>45295</v>
+      </c>
+      <c r="B735" t="n">
+        <v>6263.377857142857</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" s="4" t="n">
+        <v>45296</v>
+      </c>
+      <c r="B736" t="n">
+        <v>6238.995857142858</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" s="4" t="n">
+        <v>45297</v>
+      </c>
+      <c r="B737" t="n">
+        <v>6238.995857142858</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" s="4" t="n">
+        <v>45298</v>
+      </c>
+      <c r="B738" t="n">
+        <v>6238.995857142858</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" s="4" t="n">
+        <v>45299</v>
+      </c>
+      <c r="B739" t="n">
+        <v>6231.404857142858</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" s="4" t="n">
+        <v>45300</v>
+      </c>
+      <c r="B740" t="n">
+        <v>6255.998857142858</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" s="4" t="n">
+        <v>45301</v>
+      </c>
+      <c r="B741" t="n">
+        <v>6279.225</v>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" s="4" t="n">
+        <v>45302</v>
+      </c>
+      <c r="B742" t="n">
+        <v>6332.816000000001</v>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" s="4" t="n">
+        <v>45303</v>
+      </c>
+      <c r="B743" t="n">
+        <v>6332.816000000001</v>
       </c>
     </row>
   </sheetData>
@@ -13059,7 +13267,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B731"/>
+  <dimension ref="A1:B743"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18914,6 +19122,102 @@
         <v>7712.781</v>
       </c>
     </row>
+    <row r="732">
+      <c r="A732" s="4" t="n">
+        <v>45292</v>
+      </c>
+      <c r="B732" t="n">
+        <v>7712.781</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" s="4" t="n">
+        <v>45293</v>
+      </c>
+      <c r="B733" t="n">
+        <v>7712.781</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" s="4" t="n">
+        <v>45294</v>
+      </c>
+      <c r="B734" t="n">
+        <v>7681.024</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" s="4" t="n">
+        <v>45295</v>
+      </c>
+      <c r="B735" t="n">
+        <v>7681.024</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" s="4" t="n">
+        <v>45296</v>
+      </c>
+      <c r="B736" t="n">
+        <v>7681.024</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" s="4" t="n">
+        <v>45297</v>
+      </c>
+      <c r="B737" t="n">
+        <v>7681.024</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" s="4" t="n">
+        <v>45298</v>
+      </c>
+      <c r="B738" t="n">
+        <v>7681.024</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" s="4" t="n">
+        <v>45299</v>
+      </c>
+      <c r="B739" t="n">
+        <v>7681.024</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" s="4" t="n">
+        <v>45300</v>
+      </c>
+      <c r="B740" t="n">
+        <v>7681.024</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" s="4" t="n">
+        <v>45301</v>
+      </c>
+      <c r="B741" t="n">
+        <v>7686.71</v>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" s="4" t="n">
+        <v>45302</v>
+      </c>
+      <c r="B742" t="n">
+        <v>7686.71</v>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" s="4" t="n">
+        <v>45303</v>
+      </c>
+      <c r="B743" t="n">
+        <v>7686.71</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -18925,7 +19229,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B731"/>
+  <dimension ref="A1:B743"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24780,6 +25084,102 @@
         <v>1018.483</v>
       </c>
     </row>
+    <row r="732">
+      <c r="A732" s="4" t="n">
+        <v>45292</v>
+      </c>
+      <c r="B732" t="n">
+        <v>1018.483</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" s="4" t="n">
+        <v>45293</v>
+      </c>
+      <c r="B733" t="n">
+        <v>704.864</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" s="4" t="n">
+        <v>45294</v>
+      </c>
+      <c r="B734" t="n">
+        <v>719.897</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" s="4" t="n">
+        <v>45295</v>
+      </c>
+      <c r="B735" t="n">
+        <v>664.899</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" s="4" t="n">
+        <v>45296</v>
+      </c>
+      <c r="B736" t="n">
+        <v>694.478</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" s="4" t="n">
+        <v>45297</v>
+      </c>
+      <c r="B737" t="n">
+        <v>694.478</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" s="4" t="n">
+        <v>45298</v>
+      </c>
+      <c r="B738" t="n">
+        <v>694.478</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" s="4" t="n">
+        <v>45299</v>
+      </c>
+      <c r="B739" t="n">
+        <v>691.485</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" s="4" t="n">
+        <v>45300</v>
+      </c>
+      <c r="B740" t="n">
+        <v>676.05</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" s="4" t="n">
+        <v>45301</v>
+      </c>
+      <c r="B741" t="n">
+        <v>679.961</v>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" s="4" t="n">
+        <v>45302</v>
+      </c>
+      <c r="B742" t="n">
+        <v>626.37</v>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" s="4" t="n">
+        <v>45303</v>
+      </c>
+      <c r="B743" t="n">
+        <v>626.37</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -24791,7 +25191,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B731"/>
+  <dimension ref="A1:B743"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30627,7 +31027,7 @@
         <v>45289</v>
       </c>
       <c r="B729" t="n">
-        <v>724.973</v>
+        <v>768.59</v>
       </c>
     </row>
     <row r="730">
@@ -30635,7 +31035,7 @@
         <v>45290</v>
       </c>
       <c r="B730" t="n">
-        <v>724.973</v>
+        <v>768.59</v>
       </c>
     </row>
     <row r="731">
@@ -30643,7 +31043,103 @@
         <v>45291</v>
       </c>
       <c r="B731" t="n">
-        <v>724.973</v>
+        <v>768.59</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" s="4" t="n">
+        <v>45292</v>
+      </c>
+      <c r="B732" t="n">
+        <v>768.59</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" s="4" t="n">
+        <v>45293</v>
+      </c>
+      <c r="B733" t="n">
+        <v>766.34</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" s="4" t="n">
+        <v>45294</v>
+      </c>
+      <c r="B734" t="n">
+        <v>743.4640000000001</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" s="4" t="n">
+        <v>45295</v>
+      </c>
+      <c r="B735" t="n">
+        <v>753.179</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" s="4" t="n">
+        <v>45296</v>
+      </c>
+      <c r="B736" t="n">
+        <v>747.982</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" s="4" t="n">
+        <v>45297</v>
+      </c>
+      <c r="B737" t="n">
+        <v>747.982</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" s="4" t="n">
+        <v>45298</v>
+      </c>
+      <c r="B738" t="n">
+        <v>747.982</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" s="4" t="n">
+        <v>45299</v>
+      </c>
+      <c r="B739" t="n">
+        <v>758.566</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" s="4" t="n">
+        <v>45300</v>
+      </c>
+      <c r="B740" t="n">
+        <v>749.407</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" s="4" t="n">
+        <v>45301</v>
+      </c>
+      <c r="B741" t="n">
+        <v>727.856</v>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" s="4" t="n">
+        <v>45302</v>
+      </c>
+      <c r="B742" t="n">
+        <v>727.856</v>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" s="4" t="n">
+        <v>45303</v>
+      </c>
+      <c r="B743" t="n">
+        <v>727.856</v>
       </c>
     </row>
   </sheetData>
